--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_13_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_13_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1014455.079417844</v>
+        <v>-1015252.622398648</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681856</v>
+        <v>590120.9651681859</v>
       </c>
     </row>
     <row r="9">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>7.293863480540836</v>
+        <v>6.424434953660366</v>
       </c>
       <c r="T8" t="n">
-        <v>5.765157819097949</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>7.293863480540836</v>
@@ -1266,16 +1266,16 @@
         <v>7.293863480540836</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>6.424434953660365</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1294,64 +1294,64 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>6.424434953660366</v>
       </c>
-      <c r="E10" t="n">
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="H10" t="n">
+      <c r="W10" t="n">
         <v>7.293863480540836</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.9593084670258</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>245.2279941545734</v>
       </c>
       <c r="D11" t="n">
-        <v>234.8476312302292</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>246.6627856586335</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.5367619561716</v>
       </c>
       <c r="G11" t="n">
-        <v>292.5726318999395</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>211.0098181035021</v>
       </c>
       <c r="I11" t="n">
-        <v>63.22591095322373</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>57.1618771624517</v>
+        <v>98.90968818169254</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>129.6786594938134</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.7761199981501</v>
       </c>
       <c r="W11" t="n">
         <v>228.7730154761854</v>
       </c>
       <c r="X11" t="n">
-        <v>249.1044976068002</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.9299702268666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,10 +1449,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>49.26848240303178</v>
       </c>
       <c r="D12" t="n">
-        <v>135.7742830638043</v>
+        <v>24.35532205027636</v>
       </c>
       <c r="E12" t="n">
         <v>34.27633218280462</v>
@@ -1461,13 +1461,13 @@
         <v>21.74913055918009</v>
       </c>
       <c r="G12" t="n">
-        <v>13.9851918059693</v>
+        <v>135.7422933303385</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.83162475308175</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,22 +1497,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>41.98660464280751</v>
+        <v>163.7437061671767</v>
       </c>
       <c r="T12" t="n">
-        <v>75.49313824419421</v>
+        <v>197.2502397685634</v>
       </c>
       <c r="U12" t="n">
         <v>224.6386956938654</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>110.1516295152859</v>
       </c>
       <c r="W12" t="n">
-        <v>128.2322452256308</v>
+        <v>162.8195814860773</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>82.70452808410906</v>
       </c>
       <c r="Y12" t="n">
         <v>203.671151418586</v>
@@ -1543,10 +1543,10 @@
         <v>45.89697613459661</v>
       </c>
       <c r="H13" t="n">
-        <v>26.82104629589894</v>
+        <v>37.78306118293744</v>
       </c>
       <c r="I13" t="n">
-        <v>24.91897904632022</v>
+        <v>13.95696415928245</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>41.04460299023521</v>
       </c>
       <c r="S13" t="n">
-        <v>96.49598628451065</v>
+        <v>96.49598628451066</v>
       </c>
       <c r="T13" t="n">
         <v>105.5690890358943</v>
@@ -1610,22 +1610,22 @@
         <v>245.2279941545734</v>
       </c>
       <c r="D14" t="n">
-        <v>234.8476312302292</v>
+        <v>234.6816586332056</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>261.3609342309182</v>
       </c>
       <c r="F14" t="n">
-        <v>285.5367619561716</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>292.5726318999395</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>211.0098181035021</v>
       </c>
       <c r="I14" t="n">
-        <v>63.22591095322372</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>72.14368396580704</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>98.90968818169256</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>129.6786594938134</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>206.7761199981501</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>248.0104107592754</v>
+        <v>264.9299702268666</v>
       </c>
     </row>
     <row r="15">
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>43.61502408597562</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>49.26848240303178</v>
       </c>
       <c r="D15" t="n">
-        <v>72.95030991865143</v>
+        <v>24.35532205027636</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>34.27633218280462</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>21.74913055918009</v>
       </c>
       <c r="G15" t="n">
         <v>13.9851918059693</v>
@@ -1704,7 +1704,7 @@
         <v>107.7494499164407</v>
       </c>
       <c r="I15" t="n">
-        <v>76.83162475308175</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>77.2534916983407</v>
       </c>
       <c r="S15" t="n">
-        <v>41.98660464280751</v>
+        <v>90.15972556592371</v>
       </c>
       <c r="T15" t="n">
-        <v>75.49313824419421</v>
+        <v>197.2502397685634</v>
       </c>
       <c r="U15" t="n">
         <v>102.8815941694962</v>
       </c>
       <c r="V15" t="n">
-        <v>110.1516295152859</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>128.2322452256308</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>82.70452808410906</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -1777,13 +1777,13 @@
         <v>24.40191988543529</v>
       </c>
       <c r="G16" t="n">
-        <v>34.93496124755816</v>
+        <v>45.8969761345966</v>
       </c>
       <c r="H16" t="n">
         <v>37.78306118293744</v>
       </c>
       <c r="I16" t="n">
-        <v>24.91897904632023</v>
+        <v>13.95696415928169</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>28.07845117535896</v>
+        <v>28.07845117535897</v>
       </c>
       <c r="V17" t="n">
         <v>105.1759116796957</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>77.2534916983407</v>
       </c>
       <c r="S18" t="n">
-        <v>4.257339205827802</v>
+        <v>150.3611573503109</v>
       </c>
       <c r="T18" t="n">
         <v>197.2502397685634</v>
@@ -1980,7 +1980,7 @@
         <v>224.6386956938654</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>8.551421196831456</v>
       </c>
       <c r="W18" t="n">
         <v>249.98934675</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.8677744397509</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.968880717439836</v>
+        <v>199.8366551571908</v>
       </c>
       <c r="U19" t="n">
         <v>62.68211447890551</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>28.07845117535896</v>
+        <v>28.07845117535897</v>
       </c>
       <c r="V20" t="n">
         <v>105.1759116796957</v>
@@ -2147,7 +2147,7 @@
         <v>147.5042892883457</v>
       </c>
       <c r="Y20" t="n">
-        <v>163.3297619084122</v>
+        <v>163.3297619084121</v>
       </c>
     </row>
     <row r="21">
@@ -2160,22 +2160,22 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>135.7422933303385</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.7494499164407</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.7437061671767</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.2502397685634</v>
       </c>
       <c r="U21" t="n">
-        <v>1.281385851041773</v>
+        <v>224.6386956938654</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>8.551421196831456</v>
       </c>
       <c r="W21" t="n">
-        <v>93.45985287150729</v>
+        <v>241.3941303120964</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>48.89315026655179</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>62.68211447890551</v>
       </c>
       <c r="V22" t="n">
-        <v>29.57904122411549</v>
+        <v>225.4468156638665</v>
       </c>
       <c r="W22" t="n">
         <v>62.73526704459186</v>
@@ -2394,25 +2394,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.7422933303385</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.7494499164407</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>39.49533293005425</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.7437061671767</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1.281385851041773</v>
+        <v>224.6386956938654</v>
       </c>
       <c r="V24" t="n">
-        <v>211.1215304915012</v>
+        <v>8.551421196831456</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2518,22 +2518,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.03984243501851</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>162.8017045146044</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.7968127221722</v>
+        <v>3.968880717439836</v>
       </c>
       <c r="U25" t="n">
         <v>62.68211447890551</v>
       </c>
       <c r="V25" t="n">
-        <v>29.57904122411549</v>
+        <v>62.64511114926201</v>
       </c>
       <c r="W25" t="n">
         <v>62.73526704459186</v>
@@ -2558,7 +2558,7 @@
         <v>224.8182560641151</v>
       </c>
       <c r="D26" t="n">
-        <v>214.4378931397708</v>
+        <v>214.4378931397709</v>
       </c>
       <c r="E26" t="n">
         <v>240.9511961404599</v>
@@ -2567,13 +2567,13 @@
         <v>265.1270238657133</v>
       </c>
       <c r="G26" t="n">
-        <v>272.1628938094811</v>
+        <v>272.1628938094812</v>
       </c>
       <c r="H26" t="n">
         <v>190.6000800130437</v>
       </c>
       <c r="I26" t="n">
-        <v>42.81617286276538</v>
+        <v>42.8161728627654</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.73394587534868</v>
+        <v>51.73394587534871</v>
       </c>
       <c r="T26" t="n">
-        <v>78.4999500912342</v>
+        <v>78.49995009123423</v>
       </c>
       <c r="U26" t="n">
         <v>109.2689214033551</v>
@@ -2615,10 +2615,10 @@
         <v>186.3663819076918</v>
       </c>
       <c r="W26" t="n">
-        <v>208.363277385727</v>
+        <v>208.3632773857271</v>
       </c>
       <c r="X26" t="n">
-        <v>228.6947595163418</v>
+        <v>228.6947595163419</v>
       </c>
       <c r="Y26" t="n">
         <v>244.5202321364083</v>
@@ -2634,13 +2634,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>28.85874431257346</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>13.86659409234628</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
         <v>143.5062320835493</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>76.83162475308175</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,10 +2682,10 @@
         <v>77.2534916983407</v>
       </c>
       <c r="S27" t="n">
-        <v>21.57686655234916</v>
+        <v>163.7437061671767</v>
       </c>
       <c r="T27" t="n">
-        <v>135.9351811186832</v>
+        <v>55.08340015373589</v>
       </c>
       <c r="U27" t="n">
         <v>224.6386956938654</v>
@@ -2697,10 +2697,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>77.81135609685265</v>
       </c>
       <c r="Y27" t="n">
-        <v>61.50431180375847</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.91685187585625</v>
+        <v>37.91685187585628</v>
       </c>
       <c r="C28" t="n">
-        <v>25.16971331637478</v>
+        <v>25.16971331637481</v>
       </c>
       <c r="D28" t="n">
-        <v>6.838726899691807</v>
+        <v>6.838726899691835</v>
       </c>
       <c r="E28" t="n">
-        <v>4.807784558371623</v>
+        <v>4.807784558371651</v>
       </c>
       <c r="F28" t="n">
-        <v>3.992181794976943</v>
+        <v>3.992181794976972</v>
       </c>
       <c r="G28" t="n">
-        <v>25.48723804413826</v>
+        <v>25.48723804413829</v>
       </c>
       <c r="H28" t="n">
-        <v>17.37332309247909</v>
+        <v>17.37332309247912</v>
       </c>
       <c r="I28" t="n">
-        <v>4.509240955861871</v>
+        <v>4.509240955861899</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.63486489977686</v>
+        <v>20.63486489977689</v>
       </c>
       <c r="S28" t="n">
-        <v>76.08624819405232</v>
+        <v>76.08624819405235</v>
       </c>
       <c r="T28" t="n">
-        <v>85.15935094543595</v>
+        <v>85.15935094543597</v>
       </c>
       <c r="U28" t="n">
         <v>143.8725847069016</v>
@@ -2776,10 +2776,10 @@
         <v>143.925737272588</v>
       </c>
       <c r="X28" t="n">
-        <v>83.9735203174817</v>
+        <v>83.97352031748173</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.58183425294067</v>
+        <v>76.58183425294069</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2795,13 @@
         <v>224.8182560641151</v>
       </c>
       <c r="D29" t="n">
-        <v>214.4378931397708</v>
+        <v>214.4378931397709</v>
       </c>
       <c r="E29" t="n">
         <v>240.9511961404599</v>
       </c>
       <c r="F29" t="n">
-        <v>265.1270238657133</v>
+        <v>265.1270238657129</v>
       </c>
       <c r="G29" t="n">
         <v>272.1628938094811</v>
@@ -2810,7 +2810,7 @@
         <v>190.6000800130437</v>
       </c>
       <c r="I29" t="n">
-        <v>42.81617286276537</v>
+        <v>42.81617286276541</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.7339458753487</v>
+        <v>51.73394587534871</v>
       </c>
       <c r="T29" t="n">
-        <v>78.49995009123421</v>
+        <v>78.49995009123423</v>
       </c>
       <c r="U29" t="n">
         <v>109.2689214033551</v>
@@ -2852,10 +2852,10 @@
         <v>186.3663819076918</v>
       </c>
       <c r="W29" t="n">
-        <v>208.363277385727</v>
+        <v>208.3632773857271</v>
       </c>
       <c r="X29" t="n">
-        <v>228.6947595163418</v>
+        <v>228.6947595163419</v>
       </c>
       <c r="Y29" t="n">
         <v>244.5202321364083</v>
@@ -2871,25 +2871,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>28.85874431257346</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>13.8665940923463</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>1.339392468721769</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.7422933303385</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>15.51656610320163</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.2534916983407</v>
       </c>
       <c r="S30" t="n">
-        <v>107.9223780694025</v>
+        <v>163.7437061671767</v>
       </c>
       <c r="T30" t="n">
-        <v>55.08340015373586</v>
+        <v>197.2502397685634</v>
       </c>
       <c r="U30" t="n">
         <v>224.6386956938654</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.91685187585625</v>
+        <v>37.91685187585628</v>
       </c>
       <c r="C31" t="n">
-        <v>25.16971331637478</v>
+        <v>25.16971331637481</v>
       </c>
       <c r="D31" t="n">
-        <v>6.838726899691807</v>
+        <v>6.838726899691835</v>
       </c>
       <c r="E31" t="n">
-        <v>4.807784558371623</v>
+        <v>4.807784558371651</v>
       </c>
       <c r="F31" t="n">
-        <v>3.992181794976943</v>
+        <v>3.992181794976972</v>
       </c>
       <c r="G31" t="n">
-        <v>25.48723804413826</v>
+        <v>25.48723804413829</v>
       </c>
       <c r="H31" t="n">
-        <v>17.37332309247909</v>
+        <v>17.37332309247912</v>
       </c>
       <c r="I31" t="n">
-        <v>4.509240955861871</v>
+        <v>4.509240955861899</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.63486489977686</v>
+        <v>20.63486489977689</v>
       </c>
       <c r="S31" t="n">
-        <v>76.08624819405232</v>
+        <v>76.08624819405235</v>
       </c>
       <c r="T31" t="n">
-        <v>85.15935094543595</v>
+        <v>85.15935094543597</v>
       </c>
       <c r="U31" t="n">
         <v>143.8725847069016</v>
@@ -3013,10 +3013,10 @@
         <v>143.925737272588</v>
       </c>
       <c r="X31" t="n">
-        <v>83.9735203174817</v>
+        <v>83.97352031748173</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.58183425294067</v>
+        <v>76.58183425294069</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3032,22 @@
         <v>222.9311877044296</v>
       </c>
       <c r="D32" t="n">
-        <v>212.5508247800853</v>
+        <v>212.5508247800854</v>
       </c>
       <c r="E32" t="n">
         <v>239.0641277807744</v>
       </c>
       <c r="F32" t="n">
-        <v>263.2399555060277</v>
+        <v>263.2399555060279</v>
       </c>
       <c r="G32" t="n">
         <v>270.2758254497957</v>
       </c>
       <c r="H32" t="n">
-        <v>188.7130116533582</v>
+        <v>188.7130116533583</v>
       </c>
       <c r="I32" t="n">
-        <v>40.92910450307986</v>
+        <v>40.92910450307991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>49.84687751566318</v>
+        <v>49.84687751566324</v>
       </c>
       <c r="T32" t="n">
-        <v>76.6128817315487</v>
+        <v>76.61288173154875</v>
       </c>
       <c r="U32" t="n">
         <v>107.3818530436696</v>
@@ -3089,13 +3089,13 @@
         <v>184.4793135480063</v>
       </c>
       <c r="W32" t="n">
-        <v>206.4762090260415</v>
+        <v>206.4762090260416</v>
       </c>
       <c r="X32" t="n">
-        <v>226.8076911566563</v>
+        <v>226.8076911566564</v>
       </c>
       <c r="Y32" t="n">
-        <v>242.6331637767227</v>
+        <v>242.6331637767228</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>41.94831292712647</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>2.058515600132552</v>
       </c>
       <c r="E33" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>135.7422933303385</v>
       </c>
       <c r="H33" t="n">
-        <v>107.7494499164407</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>76.83162475308175</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>77.2534916983407</v>
       </c>
       <c r="S33" t="n">
-        <v>19.68979819266364</v>
+        <v>163.7437061671767</v>
       </c>
       <c r="T33" t="n">
-        <v>53.19633179405034</v>
+        <v>197.2502397685634</v>
       </c>
       <c r="U33" t="n">
-        <v>80.58478771935238</v>
+        <v>224.6386956938654</v>
       </c>
       <c r="V33" t="n">
-        <v>145.7589192507322</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
         <v>249.98934675</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.02978351617074</v>
+        <v>36.0297835161708</v>
       </c>
       <c r="C34" t="n">
-        <v>23.28264495668927</v>
+        <v>23.28264495668932</v>
       </c>
       <c r="D34" t="n">
-        <v>4.951658540006292</v>
+        <v>4.951658540006349</v>
       </c>
       <c r="E34" t="n">
-        <v>2.920716198686108</v>
+        <v>2.920716198686165</v>
       </c>
       <c r="F34" t="n">
-        <v>2.105113435291429</v>
+        <v>2.105113435291486</v>
       </c>
       <c r="G34" t="n">
-        <v>23.60016968445274</v>
+        <v>23.6001696844528</v>
       </c>
       <c r="H34" t="n">
-        <v>15.48625473279358</v>
+        <v>15.48625473279364</v>
       </c>
       <c r="I34" t="n">
-        <v>2.622172596176356</v>
+        <v>2.622172596176413</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.74779654009135</v>
+        <v>18.74779654009141</v>
       </c>
       <c r="S34" t="n">
-        <v>74.1991798343668</v>
+        <v>74.19917983436686</v>
       </c>
       <c r="T34" t="n">
-        <v>83.27228258575043</v>
+        <v>83.27228258575049</v>
       </c>
       <c r="U34" t="n">
-        <v>141.9855163472161</v>
+        <v>141.9855163472162</v>
       </c>
       <c r="V34" t="n">
         <v>108.8824430924261</v>
@@ -3250,10 +3250,10 @@
         <v>142.0386689129025</v>
       </c>
       <c r="X34" t="n">
-        <v>82.08645195779619</v>
+        <v>82.08645195779624</v>
       </c>
       <c r="Y34" t="n">
-        <v>74.69476589325515</v>
+        <v>74.69476589325521</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.76897131212088</v>
+        <v>30.76897131212087</v>
       </c>
       <c r="V35" t="n">
         <v>107.8664318164576</v>
@@ -3351,13 +3351,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7422933303385</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.2534916983407</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>163.7437061671767</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.2502397685634</v>
       </c>
       <c r="U36" t="n">
         <v>3.971905987803678</v>
       </c>
       <c r="V36" t="n">
-        <v>27.72146696720302</v>
+        <v>179.2629718508656</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
@@ -3430,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>35.44054958274224</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>60.03984243501851</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.3753313209229</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>30.76897131212088</v>
+        <v>30.76897131212087</v>
       </c>
       <c r="V38" t="n">
         <v>107.8664318164576</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>139.1048486853634</v>
       </c>
       <c r="C39" t="n">
         <v>171.025583927401</v>
@@ -3591,13 +3591,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.7494499164407</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.25349169834072</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.2502397685634</v>
       </c>
       <c r="U39" t="n">
-        <v>12.7804269440307</v>
+        <v>3.971905987803678</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3648,7 +3648,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.03984243501854</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>65.37263461566742</v>
       </c>
       <c r="V40" t="n">
-        <v>32.26956136087739</v>
+        <v>214.6847351168186</v>
       </c>
       <c r="W40" t="n">
         <v>65.42578718135377</v>
@@ -3727,7 +3727,7 @@
         <v>5.473570226247489</v>
       </c>
       <c r="Y40" t="n">
-        <v>122.3753313209227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3819,19 +3819,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>143.5044377879652</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7422933303385</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>80.31302252179348</v>
       </c>
     </row>
     <row r="43">
@@ -3977,7 +3977,7 @@
         <v>189.8156245012188</v>
       </c>
       <c r="C44" t="n">
-        <v>173.0843101887667</v>
+        <v>173.0843101887664</v>
       </c>
       <c r="D44" t="n">
         <v>162.7039472644221</v>
@@ -3992,7 +3992,7 @@
         <v>220.4289479341324</v>
       </c>
       <c r="H44" t="n">
-        <v>138.866134137695</v>
+        <v>138.8661341376941</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4062,19 +4062,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>5.524153618581283</v>
+        <v>55.55050637315641</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7422933303385</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>76.83162475308177</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.25349169834072</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.7437061671767</v>
       </c>
       <c r="T45" t="n">
         <v>197.2502397685634</v>
@@ -4113,7 +4113,7 @@
         <v>224.6386956938654</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>38.00794554947885</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.9845233164676</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="C8" t="n">
-        <v>15.9845233164676</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="D8" t="n">
-        <v>15.9845233164676</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="E8" t="n">
-        <v>15.9845233164676</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="F8" t="n">
-        <v>8.616984447234429</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="G8" t="n">
-        <v>1.249445578001263</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="H8" t="n">
-        <v>1.249445578001263</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="I8" t="n">
-        <v>1.249445578001263</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="J8" t="n">
         <v>0.5835090784432668</v>
@@ -4808,7 +4808,7 @@
         <v>0.5835090784432668</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5835090784432668</v>
+        <v>3.493732152831573</v>
       </c>
       <c r="M8" t="n">
         <v>3.493732152831573</v>
@@ -4829,25 +4829,25 @@
         <v>29.17545392216334</v>
       </c>
       <c r="S8" t="n">
-        <v>21.80791505293017</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="T8" t="n">
-        <v>15.9845233164676</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="U8" t="n">
-        <v>15.9845233164676</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="V8" t="n">
-        <v>15.9845233164676</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="W8" t="n">
-        <v>15.9845233164676</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="X8" t="n">
-        <v>15.9845233164676</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.9845233164676</v>
+        <v>22.68612568614277</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="F9" t="n">
         <v>0.5835090784432668</v>
@@ -4905,28 +4905,28 @@
         <v>29.17545392216334</v>
       </c>
       <c r="R9" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="S9" t="n">
         <v>21.80791505293017</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>14.440376183697</v>
       </c>
-      <c r="T9" t="n">
-        <v>7.072837314463837</v>
-      </c>
       <c r="U9" t="n">
-        <v>0.5835090784432668</v>
+        <v>14.440376183697</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5835090784432668</v>
+        <v>14.440376183697</v>
       </c>
       <c r="W9" t="n">
-        <v>0.5835090784432668</v>
+        <v>14.440376183697</v>
       </c>
       <c r="X9" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.951047947676434</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.17545392216334</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="C10" t="n">
-        <v>29.17545392216334</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="D10" t="n">
-        <v>22.68612568614277</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="E10" t="n">
-        <v>15.3185868169096</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="F10" t="n">
-        <v>15.3185868169096</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="G10" t="n">
-        <v>7.951047947676434</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="H10" t="n">
         <v>0.5835090784432668</v>
@@ -4966,7 +4966,7 @@
         <v>0.5835090784432668</v>
       </c>
       <c r="L10" t="n">
-        <v>1.451877705260062</v>
+        <v>7.804433924178694</v>
       </c>
       <c r="M10" t="n">
         <v>8.672802550995488</v>
@@ -4984,28 +4984,28 @@
         <v>29.17545392216334</v>
       </c>
       <c r="R10" t="n">
-        <v>29.17545392216334</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="S10" t="n">
-        <v>29.17545392216334</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="T10" t="n">
-        <v>29.17545392216334</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="U10" t="n">
-        <v>29.17545392216334</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="V10" t="n">
-        <v>29.17545392216334</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="W10" t="n">
-        <v>29.17545392216334</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="X10" t="n">
-        <v>29.17545392216334</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.17545392216334</v>
+        <v>0.5835090784432668</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>630.678981098927</v>
+        <v>1032.488259674167</v>
       </c>
       <c r="C11" t="n">
-        <v>630.678981098927</v>
+        <v>784.7832150735883</v>
       </c>
       <c r="D11" t="n">
-        <v>393.459151573443</v>
+        <v>784.7832150735883</v>
       </c>
       <c r="E11" t="n">
-        <v>393.459151573443</v>
+        <v>535.6288861254739</v>
       </c>
       <c r="F11" t="n">
-        <v>393.459151573443</v>
+        <v>247.2079144525731</v>
       </c>
       <c r="G11" t="n">
-        <v>97.93124056340311</v>
+        <v>247.2079144525731</v>
       </c>
       <c r="H11" t="n">
-        <v>97.93124056340311</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="I11" t="n">
         <v>34.0666840449953</v>
@@ -5042,10 +5042,10 @@
         <v>77.5298183240343</v>
       </c>
       <c r="K11" t="n">
-        <v>264.9463826846385</v>
+        <v>264.9463826846384</v>
       </c>
       <c r="L11" t="n">
-        <v>549.4222814033731</v>
+        <v>549.4222814033729</v>
       </c>
       <c r="M11" t="n">
         <v>881.1688252235097</v>
@@ -5054,7 +5054,7 @@
         <v>1202.76619996072</v>
       </c>
       <c r="O11" t="n">
-        <v>1460.313130134389</v>
+        <v>1460.31313013439</v>
       </c>
       <c r="P11" t="n">
         <v>1643.184683310794</v>
@@ -5069,22 +5069,22 @@
         <v>1703.334202249765</v>
       </c>
       <c r="T11" t="n">
-        <v>1645.594932388703</v>
+        <v>1603.425426308661</v>
       </c>
       <c r="U11" t="n">
-        <v>1645.594932388703</v>
+        <v>1472.436881365416</v>
       </c>
       <c r="V11" t="n">
-        <v>1645.594932388703</v>
+        <v>1263.572113690516</v>
       </c>
       <c r="W11" t="n">
-        <v>1414.511078372354</v>
+        <v>1032.488259674167</v>
       </c>
       <c r="X11" t="n">
-        <v>1162.89037371902</v>
+        <v>1032.488259674167</v>
       </c>
       <c r="Y11" t="n">
-        <v>895.2843431868318</v>
+        <v>1032.488259674167</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>414.6833724683886</v>
+        <v>379.7466691750085</v>
       </c>
       <c r="C12" t="n">
-        <v>241.9302573902058</v>
+        <v>329.9805253335623</v>
       </c>
       <c r="D12" t="n">
-        <v>104.7845169217165</v>
+        <v>305.3791899292427</v>
       </c>
       <c r="E12" t="n">
-        <v>70.16195916130782</v>
+        <v>270.756632168834</v>
       </c>
       <c r="F12" t="n">
-        <v>48.19314041466126</v>
+        <v>248.7878134221875</v>
       </c>
       <c r="G12" t="n">
-        <v>34.0666840449953</v>
+        <v>111.674385815785</v>
       </c>
       <c r="H12" t="n">
-        <v>34.0666840449953</v>
+        <v>111.674385815785</v>
       </c>
       <c r="I12" t="n">
         <v>34.0666840449953</v>
@@ -5121,22 +5121,22 @@
         <v>67.73507425119422</v>
       </c>
       <c r="K12" t="n">
-        <v>226.4869130398083</v>
+        <v>251.8853289681628</v>
       </c>
       <c r="L12" t="n">
-        <v>534.9492630229101</v>
+        <v>560.3476789512647</v>
       </c>
       <c r="M12" t="n">
-        <v>947.7104702987988</v>
+        <v>973.1088862271533</v>
       </c>
       <c r="N12" t="n">
-        <v>1369.285685355616</v>
+        <v>1000.930468661725</v>
       </c>
       <c r="O12" t="n">
-        <v>1703.334202249765</v>
+        <v>1334.978985555875</v>
       </c>
       <c r="P12" t="n">
-        <v>1703.334202249765</v>
+        <v>1586.655829522213</v>
       </c>
       <c r="Q12" t="n">
         <v>1703.334202249765</v>
@@ -5145,25 +5145,25 @@
         <v>1703.334202249765</v>
       </c>
       <c r="S12" t="n">
-        <v>1660.923490489353</v>
+        <v>1537.936519252617</v>
       </c>
       <c r="T12" t="n">
-        <v>1584.667795293198</v>
+        <v>1338.693852819724</v>
       </c>
       <c r="U12" t="n">
-        <v>1357.76002186505</v>
+        <v>1111.786079391577</v>
       </c>
       <c r="V12" t="n">
-        <v>1123.508778390651</v>
+        <v>1000.521807153915</v>
       </c>
       <c r="W12" t="n">
-        <v>993.9812579607211</v>
+        <v>836.0575834306045</v>
       </c>
       <c r="X12" t="n">
-        <v>787.4543593662986</v>
+        <v>752.5176560729186</v>
       </c>
       <c r="Y12" t="n">
-        <v>581.725923589949</v>
+        <v>546.7892202965691</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>256.3741188006158</v>
+        <v>256.3741188006159</v>
       </c>
       <c r="C13" t="n">
-        <v>210.3342688947238</v>
+        <v>210.3342688947239</v>
       </c>
       <c r="D13" t="n">
-        <v>182.8105668844711</v>
+        <v>182.8105668844713</v>
       </c>
       <c r="E13" t="n">
-        <v>157.3383217846426</v>
+        <v>157.3383217846431</v>
       </c>
       <c r="F13" t="n">
-        <v>132.6899178599605</v>
+        <v>132.6899178599609</v>
       </c>
       <c r="G13" t="n">
-        <v>86.32933590582252</v>
+        <v>86.32933590582292</v>
       </c>
       <c r="H13" t="n">
-        <v>59.23736995036926</v>
+        <v>48.16462764023009</v>
       </c>
       <c r="I13" t="n">
         <v>34.0666840449953</v>
       </c>
       <c r="J13" t="n">
-        <v>83.13989847667915</v>
+        <v>83.13989847667909</v>
       </c>
       <c r="K13" t="n">
-        <v>216.1412697719312</v>
+        <v>216.1412697719311</v>
       </c>
       <c r="L13" t="n">
         <v>408.431281162119</v>
@@ -5236,13 +5236,13 @@
         <v>684.6942158518279</v>
       </c>
       <c r="W13" t="n">
-        <v>518.6987861921851</v>
+        <v>518.6987861921853</v>
       </c>
       <c r="X13" t="n">
-        <v>413.2611514366902</v>
+        <v>413.2611514366903</v>
       </c>
       <c r="Y13" t="n">
-        <v>315.2898662413376</v>
+        <v>315.2898662413377</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1379.946227779985</v>
+        <v>995.966083158328</v>
       </c>
       <c r="C14" t="n">
-        <v>1132.241183179406</v>
+        <v>748.2610385577489</v>
       </c>
       <c r="D14" t="n">
-        <v>895.0213536539216</v>
+        <v>511.2088581201674</v>
       </c>
       <c r="E14" t="n">
-        <v>895.0213536539216</v>
+        <v>247.2079144525732</v>
       </c>
       <c r="F14" t="n">
-        <v>606.6003819810209</v>
+        <v>247.2079144525732</v>
       </c>
       <c r="G14" t="n">
-        <v>311.0724709709809</v>
+        <v>247.2079144525732</v>
       </c>
       <c r="H14" t="n">
-        <v>97.93124056340307</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="I14" t="n">
         <v>34.0666840449953</v>
@@ -5279,10 +5279,10 @@
         <v>77.5298183240343</v>
       </c>
       <c r="K14" t="n">
-        <v>264.9463826846385</v>
+        <v>264.9463826846384</v>
       </c>
       <c r="L14" t="n">
-        <v>549.4222814033731</v>
+        <v>549.4222814033729</v>
       </c>
       <c r="M14" t="n">
         <v>881.1688252235097</v>
@@ -5291,7 +5291,7 @@
         <v>1202.76619996072</v>
       </c>
       <c r="O14" t="n">
-        <v>1460.313130134389</v>
+        <v>1460.31313013439</v>
       </c>
       <c r="P14" t="n">
         <v>1643.184683310794</v>
@@ -5303,25 +5303,25 @@
         <v>1703.334202249765</v>
       </c>
       <c r="S14" t="n">
-        <v>1630.461794203495</v>
+        <v>1703.334202249765</v>
       </c>
       <c r="T14" t="n">
-        <v>1630.461794203495</v>
+        <v>1603.425426308661</v>
       </c>
       <c r="U14" t="n">
-        <v>1630.461794203495</v>
+        <v>1472.436881365416</v>
       </c>
       <c r="V14" t="n">
-        <v>1630.461794203495</v>
+        <v>1263.572113690517</v>
       </c>
       <c r="W14" t="n">
-        <v>1630.461794203495</v>
+        <v>1263.572113690517</v>
       </c>
       <c r="X14" t="n">
-        <v>1630.461794203495</v>
+        <v>1263.572113690517</v>
       </c>
       <c r="Y14" t="n">
-        <v>1379.946227779985</v>
+        <v>995.966083158328</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>783.6442861785988</v>
+        <v>287.9898243659073</v>
       </c>
       <c r="C15" t="n">
-        <v>610.8911711004159</v>
+        <v>238.2236805244611</v>
       </c>
       <c r="D15" t="n">
-        <v>537.2039893644044</v>
+        <v>213.6223451201415</v>
       </c>
       <c r="E15" t="n">
-        <v>379.594460367259</v>
+        <v>178.9997873597328</v>
       </c>
       <c r="F15" t="n">
-        <v>234.6386703838759</v>
+        <v>157.0309686130863</v>
       </c>
       <c r="G15" t="n">
-        <v>220.5122140142099</v>
+        <v>142.9045122434203</v>
       </c>
       <c r="H15" t="n">
-        <v>111.674385815785</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="I15" t="n">
         <v>34.0666840449953</v>
@@ -5379,28 +5379,28 @@
         <v>1703.334202249765</v>
       </c>
       <c r="R15" t="n">
-        <v>1703.334202249765</v>
+        <v>1625.300372251441</v>
       </c>
       <c r="S15" t="n">
-        <v>1660.923490489353</v>
+        <v>1534.229942386872</v>
       </c>
       <c r="T15" t="n">
-        <v>1584.667795293198</v>
+        <v>1334.987275953979</v>
       </c>
       <c r="U15" t="n">
-        <v>1480.746993101787</v>
+        <v>1231.066473762569</v>
       </c>
       <c r="V15" t="n">
-        <v>1369.482720864125</v>
+        <v>996.8152302881699</v>
       </c>
       <c r="W15" t="n">
-        <v>1239.955200434195</v>
+        <v>744.3007386215032</v>
       </c>
       <c r="X15" t="n">
-        <v>1156.415273076509</v>
+        <v>537.7738400270807</v>
       </c>
       <c r="Y15" t="n">
-        <v>950.6868373001593</v>
+        <v>332.0454042507312</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>256.3741188006161</v>
+        <v>256.3741188006164</v>
       </c>
       <c r="C16" t="n">
-        <v>210.334268894724</v>
+        <v>210.3342688947244</v>
       </c>
       <c r="D16" t="n">
-        <v>182.8105668844713</v>
+        <v>182.8105668844717</v>
       </c>
       <c r="E16" t="n">
-        <v>157.3383217846431</v>
+        <v>157.3383217846434</v>
       </c>
       <c r="F16" t="n">
-        <v>132.6899178599608</v>
+        <v>132.6899178599613</v>
       </c>
       <c r="G16" t="n">
-        <v>97.40207821596263</v>
+        <v>86.32933590582343</v>
       </c>
       <c r="H16" t="n">
-        <v>59.23736995036926</v>
+        <v>48.16462764022933</v>
       </c>
       <c r="I16" t="n">
         <v>34.0666840449953</v>
       </c>
       <c r="J16" t="n">
-        <v>83.13989847667914</v>
+        <v>83.13989847667909</v>
       </c>
       <c r="K16" t="n">
-        <v>216.1412697719312</v>
+        <v>216.1412697719311</v>
       </c>
       <c r="L16" t="n">
-        <v>408.4312811621191</v>
+        <v>408.431281162119</v>
       </c>
       <c r="M16" t="n">
-        <v>615.2145332229361</v>
+        <v>615.214533222937</v>
       </c>
       <c r="N16" t="n">
-        <v>825.0883642442906</v>
+        <v>825.0883642442918</v>
       </c>
       <c r="O16" t="n">
-        <v>1012.805983896565</v>
+        <v>1012.805983896566</v>
       </c>
       <c r="P16" t="n">
-        <v>1167.605493646876</v>
+        <v>1167.605493646877</v>
       </c>
       <c r="Q16" t="n">
-        <v>1228.705580145333</v>
+        <v>1228.705580145334</v>
       </c>
       <c r="R16" t="n">
         <v>1187.246385205702</v>
       </c>
       <c r="S16" t="n">
-        <v>1089.775691989024</v>
+        <v>1089.775691989025</v>
       </c>
       <c r="T16" t="n">
-        <v>983.140248518424</v>
+        <v>983.1402485184246</v>
       </c>
       <c r="U16" t="n">
-        <v>817.1985083190706</v>
+        <v>817.1985083190712</v>
       </c>
       <c r="V16" t="n">
-        <v>684.6942158518282</v>
+        <v>684.6942158518287</v>
       </c>
       <c r="W16" t="n">
-        <v>518.6987861921855</v>
+        <v>518.6987861921858</v>
       </c>
       <c r="X16" t="n">
-        <v>413.2611514366905</v>
+        <v>413.2611514366908</v>
       </c>
       <c r="Y16" t="n">
-        <v>315.2898662413379</v>
+        <v>315.2898662413382</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.3237766355076</v>
+        <v>964.3237766355078</v>
       </c>
       <c r="C17" t="n">
         <v>819.2452050838724</v>
@@ -5558,7 +5558,7 @@
         <v>1291.282223157713</v>
       </c>
       <c r="Y17" t="n">
-        <v>1126.302665674468</v>
+        <v>1126.302665674469</v>
       </c>
     </row>
     <row r="18">
@@ -5592,40 +5592,40 @@
         <v>34.0666840449953</v>
       </c>
       <c r="J18" t="n">
-        <v>34.0666840449953</v>
+        <v>67.73507425119422</v>
       </c>
       <c r="K18" t="n">
-        <v>218.2169387619639</v>
+        <v>251.8853289681628</v>
       </c>
       <c r="L18" t="n">
-        <v>526.6792887450658</v>
+        <v>560.3476789512647</v>
       </c>
       <c r="M18" t="n">
-        <v>939.4404960209545</v>
+        <v>579.3552536049085</v>
       </c>
       <c r="N18" t="n">
-        <v>1117.608841389277</v>
+        <v>1000.930468661725</v>
       </c>
       <c r="O18" t="n">
-        <v>1451.657358283426</v>
+        <v>1334.978985555875</v>
       </c>
       <c r="P18" t="n">
-        <v>1703.334202249765</v>
+        <v>1586.655829522213</v>
       </c>
       <c r="Q18" t="n">
         <v>1703.334202249765</v>
       </c>
       <c r="R18" t="n">
-        <v>1703.334202249765</v>
+        <v>1625.300372251441</v>
       </c>
       <c r="S18" t="n">
-        <v>1699.033859617616</v>
+        <v>1473.420415331935</v>
       </c>
       <c r="T18" t="n">
-        <v>1499.791193184723</v>
+        <v>1274.177748899043</v>
       </c>
       <c r="U18" t="n">
-        <v>1272.883419756577</v>
+        <v>1047.269975470896</v>
       </c>
       <c r="V18" t="n">
         <v>1038.632176282177</v>
@@ -5698,7 +5698,7 @@
         <v>395.295096160439</v>
       </c>
       <c r="S19" t="n">
-        <v>197.4488593526098</v>
+        <v>395.295096160439</v>
       </c>
       <c r="T19" t="n">
         <v>193.4398889309534</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.3237766355073</v>
+        <v>964.323776635508</v>
       </c>
       <c r="C20" t="n">
-        <v>819.245205083872</v>
+        <v>819.2452050838722</v>
       </c>
       <c r="D20" t="n">
-        <v>684.6518486073319</v>
+        <v>684.6518486073321</v>
       </c>
       <c r="E20" t="n">
-        <v>523.2773779886816</v>
+        <v>523.2773779886818</v>
       </c>
       <c r="F20" t="n">
-        <v>337.4828793647248</v>
+        <v>337.482879364725</v>
       </c>
       <c r="G20" t="n">
-        <v>144.5814414036293</v>
+        <v>144.5814414036292</v>
       </c>
       <c r="H20" t="n">
         <v>34.0666840449953</v>
@@ -5792,10 +5792,10 @@
         <v>1440.276454762103</v>
       </c>
       <c r="X20" t="n">
-        <v>1291.282223157713</v>
+        <v>1291.282223157714</v>
       </c>
       <c r="Y20" t="n">
-        <v>1126.302665674468</v>
+        <v>1126.302665674469</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>794.0868523511654</v>
+        <v>280.0179398498228</v>
       </c>
       <c r="C21" t="n">
-        <v>621.3337372729825</v>
+        <v>280.0179398498228</v>
       </c>
       <c r="D21" t="n">
-        <v>473.7454306319263</v>
+        <v>280.0179398498228</v>
       </c>
       <c r="E21" t="n">
-        <v>316.135901634781</v>
+        <v>280.0179398498228</v>
       </c>
       <c r="F21" t="n">
-        <v>171.1801116513978</v>
+        <v>280.0179398498228</v>
       </c>
       <c r="G21" t="n">
-        <v>34.0666840449953</v>
+        <v>142.9045122434203</v>
       </c>
       <c r="H21" t="n">
         <v>34.0666840449953</v>
@@ -5829,19 +5829,19 @@
         <v>34.0666840449953</v>
       </c>
       <c r="J21" t="n">
-        <v>34.0666840449953</v>
+        <v>67.73507425119422</v>
       </c>
       <c r="K21" t="n">
-        <v>218.2169387619639</v>
+        <v>251.8853289681628</v>
       </c>
       <c r="L21" t="n">
-        <v>526.6792887450658</v>
+        <v>560.3476789512647</v>
       </c>
       <c r="M21" t="n">
-        <v>939.4404960209545</v>
+        <v>579.3552536049085</v>
       </c>
       <c r="N21" t="n">
-        <v>1334.978985555875</v>
+        <v>1000.930468661725</v>
       </c>
       <c r="O21" t="n">
         <v>1334.978985555875</v>
@@ -5856,25 +5856,25 @@
         <v>1703.334202249765</v>
       </c>
       <c r="S21" t="n">
-        <v>1703.334202249765</v>
+        <v>1537.936519252617</v>
       </c>
       <c r="T21" t="n">
-        <v>1703.334202249765</v>
+        <v>1338.693852819724</v>
       </c>
       <c r="U21" t="n">
-        <v>1702.039873107298</v>
+        <v>1111.786079391577</v>
       </c>
       <c r="V21" t="n">
-        <v>1467.788629632899</v>
+        <v>1103.148280202859</v>
       </c>
       <c r="W21" t="n">
-        <v>1373.384737843498</v>
+        <v>859.3158253421553</v>
       </c>
       <c r="X21" t="n">
-        <v>1166.857839249075</v>
+        <v>652.7889267477328</v>
       </c>
       <c r="Y21" t="n">
-        <v>961.1294034727258</v>
+        <v>447.0604909713833</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>231.9129208528246</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="C22" t="n">
-        <v>231.9129208528246</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="D22" t="n">
-        <v>231.9129208528246</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="E22" t="n">
-        <v>83.45370451625973</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="F22" t="n">
         <v>34.0666840449953</v>
@@ -5944,16 +5944,16 @@
         <v>327.970858588373</v>
       </c>
       <c r="V22" t="n">
-        <v>298.0930391700745</v>
+        <v>100.2468023622453</v>
       </c>
       <c r="W22" t="n">
-        <v>234.7240825593757</v>
+        <v>36.8778457515464</v>
       </c>
       <c r="X22" t="n">
-        <v>231.9129208528246</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="Y22" t="n">
-        <v>231.9129208528246</v>
+        <v>34.0666840449953</v>
       </c>
     </row>
     <row r="23">
@@ -5966,37 +5966,37 @@
         <v>964.3237766355076</v>
       </c>
       <c r="C23" t="n">
-        <v>819.2452050838722</v>
+        <v>819.2452050838724</v>
       </c>
       <c r="D23" t="n">
-        <v>684.6518486073321</v>
+        <v>684.6518486073323</v>
       </c>
       <c r="E23" t="n">
-        <v>523.2773779886818</v>
+        <v>523.277377988682</v>
       </c>
       <c r="F23" t="n">
-        <v>337.4828793647251</v>
+        <v>337.4828793647252</v>
       </c>
       <c r="G23" t="n">
         <v>144.5814414036293</v>
       </c>
       <c r="H23" t="n">
-        <v>34.06668404499531</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="I23" t="n">
-        <v>34.06668404499587</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="J23" t="n">
-        <v>77.52981832403486</v>
+        <v>77.5298183240343</v>
       </c>
       <c r="K23" t="n">
-        <v>264.946382684639</v>
+        <v>264.9463826846384</v>
       </c>
       <c r="L23" t="n">
-        <v>549.4222814033735</v>
+        <v>549.4222814033729</v>
       </c>
       <c r="M23" t="n">
-        <v>881.1688252235101</v>
+        <v>881.1688252235097</v>
       </c>
       <c r="N23" t="n">
         <v>1202.76619996072</v>
@@ -6032,7 +6032,7 @@
         <v>1291.282223157713</v>
       </c>
       <c r="Y23" t="n">
-        <v>1126.302665674469</v>
+        <v>1126.302665674468</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>656.9734247447627</v>
+        <v>597.7268449113888</v>
       </c>
       <c r="C24" t="n">
-        <v>484.2203096665799</v>
+        <v>424.973729833206</v>
       </c>
       <c r="D24" t="n">
-        <v>336.6320030255238</v>
+        <v>424.973729833206</v>
       </c>
       <c r="E24" t="n">
-        <v>179.0224740283784</v>
+        <v>424.973729833206</v>
       </c>
       <c r="F24" t="n">
-        <v>34.06668404499531</v>
+        <v>280.0179398498228</v>
       </c>
       <c r="G24" t="n">
-        <v>34.06668404499531</v>
+        <v>142.9045122434203</v>
       </c>
       <c r="H24" t="n">
-        <v>34.06668404499531</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="I24" t="n">
-        <v>34.06668404499531</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="J24" t="n">
-        <v>34.06668404499531</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="K24" t="n">
-        <v>34.06668404499531</v>
+        <v>218.2169387619639</v>
       </c>
       <c r="L24" t="n">
-        <v>283.2724190565719</v>
+        <v>526.6792887450658</v>
       </c>
       <c r="M24" t="n">
-        <v>696.0336263324605</v>
+        <v>939.4404960209545</v>
       </c>
       <c r="N24" t="n">
-        <v>1117.608841389277</v>
+        <v>1361.015711077771</v>
       </c>
       <c r="O24" t="n">
-        <v>1451.657358283427</v>
+        <v>1361.015711077771</v>
       </c>
       <c r="P24" t="n">
-        <v>1703.334202249765</v>
+        <v>1586.655829522213</v>
       </c>
       <c r="Q24" t="n">
         <v>1703.334202249765</v>
       </c>
       <c r="R24" t="n">
-        <v>1703.334202249765</v>
+        <v>1663.439926562841</v>
       </c>
       <c r="S24" t="n">
-        <v>1703.334202249765</v>
+        <v>1498.042243565693</v>
       </c>
       <c r="T24" t="n">
-        <v>1703.334202249765</v>
+        <v>1498.042243565693</v>
       </c>
       <c r="U24" t="n">
-        <v>1702.039873107299</v>
+        <v>1271.134470137546</v>
       </c>
       <c r="V24" t="n">
-        <v>1488.785801903762</v>
+        <v>1262.496670948828</v>
       </c>
       <c r="W24" t="n">
-        <v>1236.271310237095</v>
+        <v>1009.982179282161</v>
       </c>
       <c r="X24" t="n">
-        <v>1029.744411642673</v>
+        <v>803.4552806877383</v>
       </c>
       <c r="Y24" t="n">
-        <v>824.0159758663232</v>
+        <v>597.7268449113888</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.06668404499531</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="C25" t="n">
-        <v>34.06668404499531</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="D25" t="n">
-        <v>34.06668404499531</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="E25" t="n">
-        <v>34.06668404499531</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="F25" t="n">
-        <v>34.06668404499531</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="G25" t="n">
-        <v>34.06668404499531</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="H25" t="n">
-        <v>34.06668404499531</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="I25" t="n">
-        <v>34.06668404499531</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="J25" t="n">
-        <v>34.06668404499531</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="K25" t="n">
         <v>46.52852483112184</v>
@@ -6166,19 +6166,19 @@
         <v>395.295096160439</v>
       </c>
       <c r="Q25" t="n">
-        <v>334.6487906705213</v>
+        <v>395.295096160439</v>
       </c>
       <c r="R25" t="n">
-        <v>334.6487906705213</v>
+        <v>230.8489299840709</v>
       </c>
       <c r="S25" t="n">
-        <v>334.6487906705213</v>
+        <v>230.8489299840709</v>
       </c>
       <c r="T25" t="n">
-        <v>193.4398889309534</v>
+        <v>226.8399595624145</v>
       </c>
       <c r="U25" t="n">
-        <v>130.1246217805437</v>
+        <v>163.5246924120049</v>
       </c>
       <c r="V25" t="n">
         <v>100.2468023622453</v>
@@ -6187,10 +6187,10 @@
         <v>36.8778457515464</v>
       </c>
       <c r="X25" t="n">
-        <v>34.06668404499531</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.06668404499531</v>
+        <v>34.0666840449953</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1523.287421840036</v>
+        <v>1523.287421840037</v>
       </c>
       <c r="C26" t="n">
         <v>1296.198274300526</v>
@@ -6215,37 +6215,37 @@
         <v>568.4042206177545</v>
       </c>
       <c r="G26" t="n">
-        <v>293.4922066687836</v>
+        <v>293.4922066687831</v>
       </c>
       <c r="H26" t="n">
-        <v>100.9668733222748</v>
+        <v>100.9668733222744</v>
       </c>
       <c r="I26" t="n">
-        <v>57.71821386493555</v>
+        <v>57.71821386493556</v>
       </c>
       <c r="J26" t="n">
-        <v>241.9265193626537</v>
+        <v>241.9265193626542</v>
       </c>
       <c r="K26" t="n">
-        <v>570.0882549419371</v>
+        <v>570.0882549419375</v>
       </c>
       <c r="L26" t="n">
-        <v>995.3093248793507</v>
+        <v>995.3093248793514</v>
       </c>
       <c r="M26" t="n">
         <v>1467.801039918167</v>
       </c>
       <c r="N26" t="n">
-        <v>1930.143585874056</v>
+        <v>1930.143585874057</v>
       </c>
       <c r="O26" t="n">
-        <v>2328.435687266405</v>
+        <v>2328.435687266406</v>
       </c>
       <c r="P26" t="n">
         <v>2652.052411661489</v>
       </c>
       <c r="Q26" t="n">
-        <v>2852.947101819139</v>
+        <v>2852.94710181914</v>
       </c>
       <c r="R26" t="n">
         <v>2885.910693246778</v>
@@ -6254,22 +6254,22 @@
         <v>2833.654182261577</v>
       </c>
       <c r="T26" t="n">
-        <v>2754.361303381542</v>
+        <v>2754.361303381543</v>
       </c>
       <c r="U26" t="n">
-        <v>2643.988655499366</v>
+        <v>2643.988655499367</v>
       </c>
       <c r="V26" t="n">
-        <v>2455.739784885536</v>
+        <v>2455.739784885537</v>
       </c>
       <c r="W26" t="n">
-        <v>2245.271827930256</v>
+        <v>2245.271827930257</v>
       </c>
       <c r="X26" t="n">
         <v>2014.267020337992</v>
       </c>
       <c r="Y26" t="n">
-        <v>1767.276886866872</v>
+        <v>1767.276886866873</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>751.7432156440896</v>
+        <v>674.1355138732998</v>
       </c>
       <c r="C27" t="n">
-        <v>578.9901005659067</v>
+        <v>644.9852670929226</v>
       </c>
       <c r="D27" t="n">
-        <v>431.4017939248506</v>
+        <v>497.3969604518666</v>
       </c>
       <c r="E27" t="n">
-        <v>417.3951332255109</v>
+        <v>339.7874314547212</v>
       </c>
       <c r="F27" t="n">
-        <v>272.4393432421277</v>
+        <v>194.8316414713381</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3259156357252</v>
+        <v>57.71821386493556</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3259156357252</v>
+        <v>57.71821386493556</v>
       </c>
       <c r="I27" t="n">
-        <v>57.71821386493555</v>
+        <v>57.71821386493556</v>
       </c>
       <c r="J27" t="n">
-        <v>91.38660407113447</v>
+        <v>91.38660407113449</v>
       </c>
       <c r="K27" t="n">
         <v>275.5368587881031</v>
       </c>
       <c r="L27" t="n">
-        <v>583.999208771205</v>
+        <v>583.9992087712051</v>
       </c>
       <c r="M27" t="n">
-        <v>996.7604160470935</v>
+        <v>996.7604160470937</v>
       </c>
       <c r="N27" t="n">
         <v>1435.844916273702</v>
@@ -6330,25 +6330,25 @@
         <v>2060.214819863418</v>
       </c>
       <c r="S27" t="n">
-        <v>2038.420005164075</v>
+        <v>1894.817136866269</v>
       </c>
       <c r="T27" t="n">
-        <v>1901.111741407829</v>
+        <v>1839.177338731183</v>
       </c>
       <c r="U27" t="n">
-        <v>1674.203967979682</v>
+        <v>1612.269565303036</v>
       </c>
       <c r="V27" t="n">
-        <v>1439.952724505283</v>
+        <v>1378.018321828637</v>
       </c>
       <c r="W27" t="n">
-        <v>1187.438232838616</v>
+        <v>1125.50383016197</v>
       </c>
       <c r="X27" t="n">
-        <v>980.9113342441939</v>
+        <v>1046.90650077121</v>
       </c>
       <c r="Y27" t="n">
-        <v>918.78576676565</v>
+        <v>841.1780649948603</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>146.7871115032127</v>
+        <v>146.7871115032129</v>
       </c>
       <c r="C28" t="n">
-        <v>121.3631586583897</v>
+        <v>121.3631586583899</v>
       </c>
       <c r="D28" t="n">
-        <v>114.4553537092061</v>
+        <v>114.4553537092062</v>
       </c>
       <c r="E28" t="n">
-        <v>109.5990056704468</v>
+        <v>109.599005670447</v>
       </c>
       <c r="F28" t="n">
-        <v>105.5664988068338</v>
+        <v>105.5664988068339</v>
       </c>
       <c r="G28" t="n">
-        <v>79.82181391376481</v>
+        <v>79.82181391376488</v>
       </c>
       <c r="H28" t="n">
-        <v>62.27300270924047</v>
+        <v>62.27300270924052</v>
       </c>
       <c r="I28" t="n">
-        <v>57.71821386493555</v>
+        <v>57.71821386493556</v>
       </c>
       <c r="J28" t="n">
-        <v>57.71821386493555</v>
+        <v>57.71821386493556</v>
       </c>
       <c r="K28" t="n">
-        <v>210.9252258697414</v>
+        <v>70.18005465106211</v>
       </c>
       <c r="L28" t="n">
-        <v>282.6757067508038</v>
+        <v>153.0181679860057</v>
       </c>
       <c r="M28" t="n">
-        <v>368.9194283024956</v>
+        <v>380.0070607563767</v>
       </c>
       <c r="N28" t="n">
-        <v>469.3413612686051</v>
+        <v>610.0865324872849</v>
       </c>
       <c r="O28" t="n">
-        <v>677.264621630433</v>
+        <v>818.0097928491128</v>
       </c>
       <c r="P28" t="n">
-        <v>852.2697720902977</v>
+        <v>852.2697720902983</v>
       </c>
       <c r="Q28" t="n">
-        <v>933.5754992983086</v>
+        <v>933.5754992983092</v>
       </c>
       <c r="R28" t="n">
-        <v>912.7322014197462</v>
+        <v>912.7322014197466</v>
       </c>
       <c r="S28" t="n">
-        <v>835.8774052641378</v>
+        <v>835.8774052641381</v>
       </c>
       <c r="T28" t="n">
-        <v>749.8578588546065</v>
+        <v>749.8578588546069</v>
       </c>
       <c r="U28" t="n">
-        <v>604.532015716322</v>
+        <v>604.5320157163223</v>
       </c>
       <c r="V28" t="n">
-        <v>492.6436203101487</v>
+        <v>492.643620310149</v>
       </c>
       <c r="W28" t="n">
-        <v>347.264087711575</v>
+        <v>347.2640877115753</v>
       </c>
       <c r="X28" t="n">
-        <v>262.442350017149</v>
+        <v>262.4423500171492</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.0869618828655</v>
+        <v>185.0869618828657</v>
       </c>
     </row>
     <row r="29">
@@ -6446,28 +6446,28 @@
         <v>1079.594341836111</v>
       </c>
       <c r="E29" t="n">
-        <v>836.2092952295856</v>
+        <v>836.2092952295853</v>
       </c>
       <c r="F29" t="n">
-        <v>568.4042206177539</v>
+        <v>568.404220617754</v>
       </c>
       <c r="G29" t="n">
-        <v>293.4922066687831</v>
+        <v>293.4922066687832</v>
       </c>
       <c r="H29" t="n">
-        <v>100.9668733222743</v>
+        <v>100.9668733222744</v>
       </c>
       <c r="I29" t="n">
-        <v>57.71821386493555</v>
+        <v>57.71821386493556</v>
       </c>
       <c r="J29" t="n">
         <v>241.9265193626538</v>
       </c>
       <c r="K29" t="n">
-        <v>570.0882549419377</v>
+        <v>570.0882549419371</v>
       </c>
       <c r="L29" t="n">
-        <v>995.3093248793515</v>
+        <v>995.3093248793509</v>
       </c>
       <c r="M29" t="n">
         <v>1467.801039918167</v>
@@ -6476,13 +6476,13 @@
         <v>1930.143585874056</v>
       </c>
       <c r="O29" t="n">
-        <v>2328.435687266406</v>
+        <v>2328.435687266405</v>
       </c>
       <c r="P29" t="n">
         <v>2652.052411661489</v>
       </c>
       <c r="Q29" t="n">
-        <v>2852.947101819139</v>
+        <v>2852.94710181914</v>
       </c>
       <c r="R29" t="n">
         <v>2885.910693246778</v>
@@ -6491,16 +6491,16 @@
         <v>2833.654182261577</v>
       </c>
       <c r="T29" t="n">
-        <v>2754.361303381542</v>
+        <v>2754.361303381543</v>
       </c>
       <c r="U29" t="n">
-        <v>2643.988655499365</v>
+        <v>2643.988655499366</v>
       </c>
       <c r="V29" t="n">
-        <v>2455.739784885535</v>
+        <v>2455.739784885536</v>
       </c>
       <c r="W29" t="n">
-        <v>2245.271827930255</v>
+        <v>2245.271827930256</v>
       </c>
       <c r="X29" t="n">
         <v>2014.267020337991</v>
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>680.624954564703</v>
+        <v>402.6030763718318</v>
       </c>
       <c r="C30" t="n">
-        <v>507.8718394865202</v>
+        <v>373.4528295914545</v>
       </c>
       <c r="D30" t="n">
-        <v>360.283532845464</v>
+        <v>225.8645229503984</v>
       </c>
       <c r="E30" t="n">
-        <v>202.6740038483187</v>
+        <v>211.8578622510587</v>
       </c>
       <c r="F30" t="n">
-        <v>57.71821386493555</v>
+        <v>210.5049405654811</v>
       </c>
       <c r="G30" t="n">
-        <v>57.71821386493555</v>
+        <v>73.39151295907863</v>
       </c>
       <c r="H30" t="n">
-        <v>57.71821386493555</v>
+        <v>73.39151295907863</v>
       </c>
       <c r="I30" t="n">
-        <v>57.71821386493555</v>
+        <v>57.71821386493556</v>
       </c>
       <c r="J30" t="n">
-        <v>91.38660407113447</v>
+        <v>91.38660407113449</v>
       </c>
       <c r="K30" t="n">
         <v>275.5368587881031</v>
       </c>
       <c r="L30" t="n">
-        <v>583.999208771205</v>
+        <v>583.9992087712051</v>
       </c>
       <c r="M30" t="n">
-        <v>996.7604160470935</v>
+        <v>996.7604160470937</v>
       </c>
       <c r="N30" t="n">
         <v>1435.844916273702</v>
@@ -6564,28 +6564,28 @@
         <v>2138.248649861742</v>
       </c>
       <c r="R30" t="n">
-        <v>2138.248649861742</v>
+        <v>2060.214819863418</v>
       </c>
       <c r="S30" t="n">
-        <v>2029.236146761335</v>
+        <v>1894.817136866269</v>
       </c>
       <c r="T30" t="n">
-        <v>1973.596348626249</v>
+        <v>1695.574470433377</v>
       </c>
       <c r="U30" t="n">
-        <v>1746.688575198101</v>
+        <v>1468.66669700523</v>
       </c>
       <c r="V30" t="n">
-        <v>1512.437331723702</v>
+        <v>1234.415453530831</v>
       </c>
       <c r="W30" t="n">
-        <v>1259.922840057036</v>
+        <v>981.9009618641643</v>
       </c>
       <c r="X30" t="n">
-        <v>1053.395941462613</v>
+        <v>775.3740632697418</v>
       </c>
       <c r="Y30" t="n">
-        <v>847.6675056862634</v>
+        <v>569.6456274933922</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146.7871115032127</v>
+        <v>146.7871115032129</v>
       </c>
       <c r="C31" t="n">
-        <v>121.3631586583897</v>
+        <v>121.3631586583899</v>
       </c>
       <c r="D31" t="n">
-        <v>114.4553537092061</v>
+        <v>114.4553537092062</v>
       </c>
       <c r="E31" t="n">
-        <v>109.5990056704468</v>
+        <v>109.599005670447</v>
       </c>
       <c r="F31" t="n">
-        <v>105.5664988068338</v>
+        <v>105.5664988068339</v>
       </c>
       <c r="G31" t="n">
-        <v>79.82181391376481</v>
+        <v>79.82181391376488</v>
       </c>
       <c r="H31" t="n">
-        <v>62.27300270924047</v>
+        <v>62.27300270924052</v>
       </c>
       <c r="I31" t="n">
-        <v>57.71821386493555</v>
+        <v>57.71821386493556</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9970690061732</v>
+        <v>126.9970690061731</v>
       </c>
       <c r="K31" t="n">
-        <v>280.204081010979</v>
+        <v>139.4589097922997</v>
       </c>
       <c r="L31" t="n">
-        <v>492.6997331107207</v>
+        <v>211.2093906733621</v>
       </c>
       <c r="M31" t="n">
-        <v>719.6886258810918</v>
+        <v>380.0070607563767</v>
       </c>
       <c r="N31" t="n">
-        <v>809.0229263933206</v>
+        <v>610.0865324872849</v>
       </c>
       <c r="O31" t="n">
-        <v>876.2010155364693</v>
+        <v>677.2646216304336</v>
       </c>
       <c r="P31" t="n">
-        <v>910.4609947776547</v>
+        <v>852.2697720902983</v>
       </c>
       <c r="Q31" t="n">
-        <v>933.5754992983086</v>
+        <v>933.5754992983092</v>
       </c>
       <c r="R31" t="n">
-        <v>912.7322014197462</v>
+        <v>912.7322014197466</v>
       </c>
       <c r="S31" t="n">
-        <v>835.8774052641378</v>
+        <v>835.8774052641381</v>
       </c>
       <c r="T31" t="n">
-        <v>749.8578588546065</v>
+        <v>749.8578588546069</v>
       </c>
       <c r="U31" t="n">
-        <v>604.532015716322</v>
+        <v>604.5320157163223</v>
       </c>
       <c r="V31" t="n">
-        <v>492.6436203101487</v>
+        <v>492.643620310149</v>
       </c>
       <c r="W31" t="n">
-        <v>347.264087711575</v>
+        <v>347.2640877115753</v>
       </c>
       <c r="X31" t="n">
-        <v>262.442350017149</v>
+        <v>262.4423500171492</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.0869618828655</v>
+        <v>185.0869618828657</v>
       </c>
     </row>
     <row r="32">
@@ -6683,67 +6683,67 @@
         <v>1069.480184476427</v>
       </c>
       <c r="E32" t="n">
-        <v>828.0012675261498</v>
+        <v>828.0012675261497</v>
       </c>
       <c r="F32" t="n">
-        <v>562.1023225705662</v>
+        <v>562.102322570566</v>
       </c>
       <c r="G32" t="n">
-        <v>289.0964382778438</v>
+        <v>289.096438277844</v>
       </c>
       <c r="H32" t="n">
-        <v>98.47723458758304</v>
+        <v>98.47723458758313</v>
       </c>
       <c r="I32" t="n">
         <v>57.13470478649229</v>
       </c>
       <c r="J32" t="n">
-        <v>197.8054840317814</v>
+        <v>243.2112079602991</v>
       </c>
       <c r="K32" t="n">
-        <v>527.8354172871534</v>
+        <v>573.2411412156712</v>
       </c>
       <c r="L32" t="n">
-        <v>954.9246849006558</v>
+        <v>954.9246849006563</v>
       </c>
       <c r="M32" t="n">
-        <v>1429.28459761556</v>
+        <v>1429.284597615561</v>
       </c>
       <c r="N32" t="n">
         <v>1893.495341247539</v>
       </c>
       <c r="O32" t="n">
-        <v>2293.655640315976</v>
+        <v>2293.655640315977</v>
       </c>
       <c r="P32" t="n">
-        <v>2619.140562387148</v>
+        <v>2619.140562387149</v>
       </c>
       <c r="Q32" t="n">
-        <v>2821.903450220887</v>
+        <v>2821.903450220888</v>
       </c>
       <c r="R32" t="n">
-        <v>2856.735239324614</v>
+        <v>2856.735239324615</v>
       </c>
       <c r="S32" t="n">
         <v>2806.384857995662</v>
       </c>
       <c r="T32" t="n">
-        <v>2728.998108771875</v>
+        <v>2728.998108771876</v>
       </c>
       <c r="U32" t="n">
-        <v>2620.531590545946</v>
+        <v>2620.531590545947</v>
       </c>
       <c r="V32" t="n">
-        <v>2434.188849588364</v>
+        <v>2434.188849588365</v>
       </c>
       <c r="W32" t="n">
-        <v>2225.627022289332</v>
+        <v>2225.627022289333</v>
       </c>
       <c r="X32" t="n">
         <v>1996.528344353316</v>
       </c>
       <c r="Y32" t="n">
-        <v>1751.444340538444</v>
+        <v>1751.444340538445</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1003.600403061877</v>
+        <v>526.6900851552255</v>
       </c>
       <c r="C33" t="n">
-        <v>830.8472879836941</v>
+        <v>353.9369700770427</v>
       </c>
       <c r="D33" t="n">
-        <v>683.2589813426379</v>
+        <v>351.8576613900401</v>
       </c>
       <c r="E33" t="n">
-        <v>525.6494523454926</v>
+        <v>194.2481323928948</v>
       </c>
       <c r="F33" t="n">
-        <v>380.6936623621095</v>
+        <v>194.2481323928948</v>
       </c>
       <c r="G33" t="n">
-        <v>243.580234755707</v>
+        <v>57.13470478649229</v>
       </c>
       <c r="H33" t="n">
-        <v>134.742406557282</v>
+        <v>57.13470478649229</v>
       </c>
       <c r="I33" t="n">
         <v>57.13470478649229</v>
       </c>
       <c r="J33" t="n">
-        <v>90.8030949926912</v>
+        <v>90.80309499269121</v>
       </c>
       <c r="K33" t="n">
         <v>274.9533497096598</v>
@@ -6801,28 +6801,28 @@
         <v>2137.665140783299</v>
       </c>
       <c r="R33" t="n">
-        <v>2137.665140783299</v>
+        <v>2059.631310784975</v>
       </c>
       <c r="S33" t="n">
-        <v>2117.776455740204</v>
+        <v>1894.233627787826</v>
       </c>
       <c r="T33" t="n">
-        <v>2064.042787261365</v>
+        <v>1694.990961354934</v>
       </c>
       <c r="U33" t="n">
-        <v>1982.644011787272</v>
+        <v>1468.083187926787</v>
       </c>
       <c r="V33" t="n">
-        <v>1835.412780220876</v>
+        <v>1233.831944452388</v>
       </c>
       <c r="W33" t="n">
-        <v>1582.898288554209</v>
+        <v>981.3174527857212</v>
       </c>
       <c r="X33" t="n">
-        <v>1376.371389959787</v>
+        <v>774.7905541912987</v>
       </c>
       <c r="Y33" t="n">
-        <v>1170.642954183437</v>
+        <v>569.0621184149492</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8606948310335</v>
+        <v>132.8606948310339</v>
       </c>
       <c r="C34" t="n">
-        <v>109.3428716424584</v>
+        <v>109.3428716424588</v>
       </c>
       <c r="D34" t="n">
-        <v>104.3411963495228</v>
+        <v>104.3411963495231</v>
       </c>
       <c r="E34" t="n">
-        <v>101.3909779670116</v>
+        <v>101.3909779670118</v>
       </c>
       <c r="F34" t="n">
-        <v>99.2646007596465</v>
+        <v>99.26460075964668</v>
       </c>
       <c r="G34" t="n">
-        <v>75.42604552282555</v>
+        <v>75.42604552282567</v>
       </c>
       <c r="H34" t="n">
-        <v>59.78336397454921</v>
+        <v>59.78336397454927</v>
       </c>
       <c r="I34" t="n">
         <v>57.13470478649229</v>
       </c>
       <c r="J34" t="n">
-        <v>57.13470478649229</v>
+        <v>128.2817576038185</v>
       </c>
       <c r="K34" t="n">
-        <v>69.59654557261882</v>
+        <v>185.3266817169459</v>
       </c>
       <c r="L34" t="n">
-        <v>257.0771625980072</v>
+        <v>257.0771625980083</v>
       </c>
       <c r="M34" t="n">
-        <v>343.320884149699</v>
+        <v>343.3208841497</v>
       </c>
       <c r="N34" t="n">
-        <v>575.2685535566959</v>
+        <v>432.655184661929</v>
       </c>
       <c r="O34" t="n">
-        <v>785.0600115946124</v>
+        <v>642.4466426998455</v>
       </c>
       <c r="P34" t="n">
-        <v>819.3199908357979</v>
+        <v>819.3199908357988</v>
       </c>
       <c r="Q34" t="n">
-        <v>902.4939157198975</v>
+        <v>902.4939157198983</v>
       </c>
       <c r="R34" t="n">
-        <v>883.5567474975829</v>
+        <v>883.5567474975837</v>
       </c>
       <c r="S34" t="n">
-        <v>808.6080809982225</v>
+        <v>808.6080809982233</v>
       </c>
       <c r="T34" t="n">
-        <v>724.4946642449393</v>
+        <v>724.4946642449399</v>
       </c>
       <c r="U34" t="n">
-        <v>581.0749507629027</v>
+        <v>581.0749507629034</v>
       </c>
       <c r="V34" t="n">
-        <v>471.0926850129774</v>
+        <v>471.0926850129781</v>
       </c>
       <c r="W34" t="n">
-        <v>327.6192820706517</v>
+        <v>327.6192820706523</v>
       </c>
       <c r="X34" t="n">
-        <v>244.7036740324738</v>
+        <v>244.7036740324743</v>
       </c>
       <c r="Y34" t="n">
-        <v>169.2544155544383</v>
+        <v>169.2544155544387</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>981.295517757939</v>
+        <v>981.2955177579388</v>
       </c>
       <c r="C35" t="n">
-        <v>833.4992490984635</v>
+        <v>833.4992490984632</v>
       </c>
       <c r="D35" t="n">
-        <v>696.188195514083</v>
+        <v>696.1881955140827</v>
       </c>
       <c r="E35" t="n">
-        <v>532.0960277875923</v>
+        <v>532.0960277875921</v>
       </c>
       <c r="F35" t="n">
-        <v>343.5838320557953</v>
+        <v>343.583832055795</v>
       </c>
       <c r="G35" t="n">
         <v>147.9646969868591</v>
@@ -6938,34 +6938,34 @@
         <v>78.19537679942377</v>
       </c>
       <c r="K35" t="n">
-        <v>265.6119411600279</v>
+        <v>298.2243064541121</v>
       </c>
       <c r="L35" t="n">
-        <v>550.0878398787625</v>
+        <v>582.7002051728466</v>
       </c>
       <c r="M35" t="n">
-        <v>881.834383698899</v>
+        <v>914.4467489929832</v>
       </c>
       <c r="N35" t="n">
-        <v>1203.431758436109</v>
+        <v>1236.044123730193</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.978688609779</v>
+        <v>1493.591053903863</v>
       </c>
       <c r="P35" t="n">
-        <v>1643.850241786183</v>
+        <v>1676.462607080267</v>
       </c>
       <c r="Q35" t="n">
-        <v>1703.999760725154</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="R35" t="n">
-        <v>1710.113781845512</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="S35" t="n">
-        <v>1736.612126019238</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="T35" t="n">
-        <v>1736.612126019238</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="U35" t="n">
         <v>1705.532357017096</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>794.7524108265548</v>
+        <v>355.0736642396237</v>
       </c>
       <c r="C36" t="n">
-        <v>621.9992957483719</v>
+        <v>182.3205491614409</v>
       </c>
       <c r="D36" t="n">
-        <v>474.4109891073157</v>
+        <v>34.73224252038477</v>
       </c>
       <c r="E36" t="n">
-        <v>316.8014601101704</v>
+        <v>34.73224252038477</v>
       </c>
       <c r="F36" t="n">
-        <v>171.8456701267873</v>
+        <v>34.73224252038477</v>
       </c>
       <c r="G36" t="n">
         <v>34.73224252038477</v>
@@ -7014,52 +7014,52 @@
         <v>34.73224252038477</v>
       </c>
       <c r="J36" t="n">
-        <v>68.40063272658369</v>
+        <v>34.73224252038477</v>
       </c>
       <c r="K36" t="n">
-        <v>252.5508874435523</v>
+        <v>218.8824972373534</v>
       </c>
       <c r="L36" t="n">
-        <v>561.0132374266542</v>
+        <v>525.6842008596982</v>
       </c>
       <c r="M36" t="n">
-        <v>973.7744447025427</v>
+        <v>938.4454081355867</v>
       </c>
       <c r="N36" t="n">
-        <v>1150.88676515875</v>
+        <v>1368.256909325348</v>
       </c>
       <c r="O36" t="n">
-        <v>1484.9352820529</v>
+        <v>1368.256909325348</v>
       </c>
       <c r="P36" t="n">
-        <v>1736.612126019238</v>
+        <v>1619.933753291687</v>
       </c>
       <c r="Q36" t="n">
-        <v>1736.612126019238</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="R36" t="n">
-        <v>1658.578296020914</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="S36" t="n">
-        <v>1658.578296020914</v>
+        <v>1571.21444302209</v>
       </c>
       <c r="T36" t="n">
-        <v>1658.578296020914</v>
+        <v>1371.971776589198</v>
       </c>
       <c r="U36" t="n">
-        <v>1654.566269770608</v>
+        <v>1367.959750338891</v>
       </c>
       <c r="V36" t="n">
-        <v>1626.564787985554</v>
+        <v>1186.886041398623</v>
       </c>
       <c r="W36" t="n">
-        <v>1374.050296318887</v>
+        <v>934.3715497319563</v>
       </c>
       <c r="X36" t="n">
-        <v>1167.523397724465</v>
+        <v>727.8446511375338</v>
       </c>
       <c r="Y36" t="n">
-        <v>961.7949619481152</v>
+        <v>522.1162153611842</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>218.9899937890125</v>
+        <v>34.73224252038477</v>
       </c>
       <c r="C37" t="n">
-        <v>218.9899937890125</v>
+        <v>34.73224252038477</v>
       </c>
       <c r="D37" t="n">
-        <v>218.9899937890125</v>
+        <v>34.73224252038477</v>
       </c>
       <c r="E37" t="n">
-        <v>70.53077745244764</v>
+        <v>34.73224252038477</v>
       </c>
       <c r="F37" t="n">
         <v>34.73224252038477</v>
@@ -7096,49 +7096,49 @@
         <v>34.73224252038477</v>
       </c>
       <c r="K37" t="n">
-        <v>47.1940833065113</v>
+        <v>47.19408330651131</v>
       </c>
       <c r="L37" t="n">
         <v>118.9445641875737</v>
       </c>
       <c r="M37" t="n">
-        <v>205.1882857392654</v>
+        <v>205.1882857392655</v>
       </c>
       <c r="N37" t="n">
         <v>294.5225862514944</v>
       </c>
       <c r="O37" t="n">
-        <v>361.700675394643</v>
+        <v>361.7006753946431</v>
       </c>
       <c r="P37" t="n">
         <v>395.9606546358285</v>
       </c>
       <c r="Q37" t="n">
-        <v>395.9606546358285</v>
+        <v>335.3143491459108</v>
       </c>
       <c r="R37" t="n">
-        <v>395.9606546358285</v>
+        <v>211.7029033672007</v>
       </c>
       <c r="S37" t="n">
-        <v>395.9606546358285</v>
+        <v>211.7029033672007</v>
       </c>
       <c r="T37" t="n">
-        <v>389.2339871063318</v>
+        <v>204.9762358377041</v>
       </c>
       <c r="U37" t="n">
-        <v>323.2010228480818</v>
+        <v>138.9432715794541</v>
       </c>
       <c r="V37" t="n">
-        <v>290.605506321943</v>
+        <v>106.3477550533154</v>
       </c>
       <c r="W37" t="n">
-        <v>224.5188526034039</v>
+        <v>40.26110133477618</v>
       </c>
       <c r="X37" t="n">
-        <v>218.9899937890125</v>
+        <v>34.73224252038477</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.9899937890125</v>
+        <v>34.73224252038477</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>981.295517757939</v>
+        <v>981.2955177579399</v>
       </c>
       <c r="C38" t="n">
-        <v>833.4992490984632</v>
+        <v>833.4992490984641</v>
       </c>
       <c r="D38" t="n">
-        <v>696.1881955140827</v>
+        <v>696.1881955140836</v>
       </c>
       <c r="E38" t="n">
-        <v>532.0960277875921</v>
+        <v>532.096027787593</v>
       </c>
       <c r="F38" t="n">
-        <v>343.583832055795</v>
+        <v>343.5838320557959</v>
       </c>
       <c r="G38" t="n">
         <v>147.9646969868591</v>
       </c>
       <c r="H38" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="I38" t="n">
-        <v>67.34460781446944</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="J38" t="n">
-        <v>110.8077420935084</v>
+        <v>78.19537679942374</v>
       </c>
       <c r="K38" t="n">
-        <v>298.2243064541125</v>
+        <v>265.6119411600278</v>
       </c>
       <c r="L38" t="n">
-        <v>582.7002051728469</v>
+        <v>550.0878398787622</v>
       </c>
       <c r="M38" t="n">
-        <v>914.4467489929835</v>
+        <v>881.8343836988988</v>
       </c>
       <c r="N38" t="n">
-        <v>1236.044123730194</v>
+        <v>1203.431758436109</v>
       </c>
       <c r="O38" t="n">
-        <v>1493.591053903863</v>
+        <v>1460.978688609778</v>
       </c>
       <c r="P38" t="n">
-        <v>1676.462607080267</v>
+        <v>1643.850241786182</v>
       </c>
       <c r="Q38" t="n">
-        <v>1736.612126019238</v>
+        <v>1703.999760725153</v>
       </c>
       <c r="R38" t="n">
-        <v>1736.612126019238</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="S38" t="n">
-        <v>1736.612126019238</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="T38" t="n">
-        <v>1736.612126019238</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="U38" t="n">
-        <v>1705.532357017096</v>
+        <v>1705.532357017097</v>
       </c>
       <c r="V38" t="n">
-        <v>1596.5763652833</v>
+        <v>1596.576365283301</v>
       </c>
       <c r="W38" t="n">
-        <v>1465.401287208055</v>
+        <v>1465.401287208056</v>
       </c>
       <c r="X38" t="n">
-        <v>1313.689358495825</v>
+        <v>1313.689358495826</v>
       </c>
       <c r="Y38" t="n">
-        <v>1145.99210390474</v>
+        <v>1145.992103904741</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>657.6389832201521</v>
+        <v>621.521021435194</v>
       </c>
       <c r="C39" t="n">
-        <v>484.8858681419694</v>
+        <v>448.7679063570112</v>
       </c>
       <c r="D39" t="n">
-        <v>337.2975615009132</v>
+        <v>301.1795997159551</v>
       </c>
       <c r="E39" t="n">
-        <v>179.6880325037679</v>
+        <v>143.5700707188098</v>
       </c>
       <c r="F39" t="n">
-        <v>34.73224252038477</v>
+        <v>143.5700707188098</v>
       </c>
       <c r="G39" t="n">
-        <v>34.73224252038477</v>
+        <v>143.5700707188098</v>
       </c>
       <c r="H39" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="I39" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="J39" t="n">
-        <v>34.73224252038477</v>
+        <v>68.40063272658368</v>
       </c>
       <c r="K39" t="n">
-        <v>218.8824972373533</v>
+        <v>68.40063272658368</v>
       </c>
       <c r="L39" t="n">
-        <v>527.3448472204552</v>
+        <v>376.8629827096855</v>
       </c>
       <c r="M39" t="n">
-        <v>604.3968912414373</v>
+        <v>789.624189985574</v>
       </c>
       <c r="N39" t="n">
-        <v>1034.208392431199</v>
+        <v>1219.435691175336</v>
       </c>
       <c r="O39" t="n">
-        <v>1368.256909325348</v>
+        <v>1368.256909325349</v>
       </c>
       <c r="P39" t="n">
         <v>1619.933753291687</v>
       </c>
       <c r="Q39" t="n">
-        <v>1736.612126019238</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="R39" t="n">
-        <v>1736.612126019238</v>
+        <v>1658.578296020915</v>
       </c>
       <c r="S39" t="n">
-        <v>1736.612126019238</v>
+        <v>1658.578296020915</v>
       </c>
       <c r="T39" t="n">
-        <v>1736.612126019238</v>
+        <v>1459.335629588023</v>
       </c>
       <c r="U39" t="n">
-        <v>1723.702603853551</v>
+        <v>1455.323603337716</v>
       </c>
       <c r="V39" t="n">
-        <v>1489.451360379152</v>
+        <v>1221.072359863317</v>
       </c>
       <c r="W39" t="n">
-        <v>1236.936868712485</v>
+        <v>968.5578681966502</v>
       </c>
       <c r="X39" t="n">
-        <v>1030.409970118062</v>
+        <v>762.0309696022277</v>
       </c>
       <c r="Y39" t="n">
-        <v>824.6815343417126</v>
+        <v>762.0309696022277</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="C40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="D40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="E40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="F40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="G40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="H40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="I40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="J40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="K40" t="n">
-        <v>47.19408330651128</v>
+        <v>47.1940833065113</v>
       </c>
       <c r="L40" t="n">
         <v>118.9445641875736</v>
@@ -7351,31 +7351,31 @@
         <v>395.9606546358283</v>
       </c>
       <c r="Q40" t="n">
-        <v>335.3143491459106</v>
+        <v>395.9606546358283</v>
       </c>
       <c r="R40" t="n">
-        <v>335.3143491459106</v>
+        <v>395.9606546358283</v>
       </c>
       <c r="S40" t="n">
-        <v>335.3143491459106</v>
+        <v>395.9606546358283</v>
       </c>
       <c r="T40" t="n">
-        <v>328.5876816164139</v>
+        <v>389.2339871063316</v>
       </c>
       <c r="U40" t="n">
-        <v>262.5547173581639</v>
+        <v>323.2010228480817</v>
       </c>
       <c r="V40" t="n">
-        <v>229.9592008320251</v>
+        <v>106.3477550533154</v>
       </c>
       <c r="W40" t="n">
-        <v>163.872547113486</v>
+        <v>40.26110133477619</v>
       </c>
       <c r="X40" t="n">
-        <v>158.3436882990946</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
     </row>
     <row r="41">
@@ -7388,67 +7388,67 @@
         <v>1150.686639058225</v>
       </c>
       <c r="C41" t="n">
-        <v>975.8540025039156</v>
+        <v>975.854002503915</v>
       </c>
       <c r="D41" t="n">
-        <v>811.5065810247013</v>
+        <v>811.5065810247008</v>
       </c>
       <c r="E41" t="n">
-        <v>620.3780454033769</v>
+        <v>620.3780454033765</v>
       </c>
       <c r="F41" t="n">
-        <v>404.829481776746</v>
+        <v>404.8294817767455</v>
       </c>
       <c r="G41" t="n">
         <v>182.1739788129753</v>
       </c>
       <c r="H41" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="I41" t="n">
-        <v>50.73375173412471</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="J41" t="n">
-        <v>94.19688601316366</v>
+        <v>85.36829073070616</v>
       </c>
       <c r="K41" t="n">
-        <v>473.5752280090422</v>
+        <v>464.7466327265848</v>
       </c>
       <c r="L41" t="n">
-        <v>758.0511267277767</v>
+        <v>749.2225314453192</v>
       </c>
       <c r="M41" t="n">
-        <v>1089.797670547913</v>
+        <v>1267.798842534701</v>
       </c>
       <c r="N41" t="n">
-        <v>1510.509622450083</v>
+        <v>1589.396217271911</v>
       </c>
       <c r="O41" t="n">
-        <v>1768.056552623752</v>
+        <v>1846.94314744558</v>
       </c>
       <c r="P41" t="n">
-        <v>1950.928105800156</v>
+        <v>2029.814700621984</v>
       </c>
       <c r="Q41" t="n">
-        <v>2011.077624739127</v>
+        <v>2089.964219560955</v>
       </c>
       <c r="R41" t="n">
-        <v>2095.257822583361</v>
+        <v>2095.25782258336</v>
       </c>
       <c r="S41" t="n">
-        <v>2095.257822583361</v>
+        <v>2095.25782258336</v>
       </c>
       <c r="T41" t="n">
-        <v>2068.221454688527</v>
+        <v>2068.221454688526</v>
       </c>
       <c r="U41" t="n">
         <v>2010.105317791551</v>
       </c>
       <c r="V41" t="n">
-        <v>1874.112958162922</v>
+        <v>1874.112958162921</v>
       </c>
       <c r="W41" t="n">
-        <v>1715.901512192843</v>
+        <v>1715.901512192842</v>
       </c>
       <c r="X41" t="n">
         <v>1537.153215585779</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>359.6122490934513</v>
+        <v>484.2164196962712</v>
       </c>
       <c r="C42" t="n">
-        <v>186.8591340152685</v>
+        <v>484.2164196962712</v>
       </c>
       <c r="D42" t="n">
-        <v>41.90515645166722</v>
+        <v>336.6281130552151</v>
       </c>
       <c r="E42" t="n">
-        <v>41.90515645166722</v>
+        <v>179.0185840580697</v>
       </c>
       <c r="F42" t="n">
-        <v>41.90515645166722</v>
+        <v>179.0185840580697</v>
       </c>
       <c r="G42" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="H42" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="I42" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="J42" t="n">
-        <v>48.39577679275385</v>
+        <v>75.5735466578661</v>
       </c>
       <c r="K42" t="n">
-        <v>232.5460315097224</v>
+        <v>259.7238013748347</v>
       </c>
       <c r="L42" t="n">
-        <v>541.0083814928242</v>
+        <v>568.1861513579365</v>
       </c>
       <c r="M42" t="n">
-        <v>953.7695887687128</v>
+        <v>980.947358633825</v>
       </c>
       <c r="N42" t="n">
-        <v>1392.854088995321</v>
+        <v>1392.85408899532</v>
       </c>
       <c r="O42" t="n">
-        <v>1726.902605889471</v>
+        <v>1726.90260588947</v>
       </c>
       <c r="P42" t="n">
-        <v>1978.579449855809</v>
+        <v>1978.579449855808</v>
       </c>
       <c r="Q42" t="n">
-        <v>2095.257822583361</v>
+        <v>2095.25782258336</v>
       </c>
       <c r="R42" t="n">
-        <v>2017.223992585037</v>
+        <v>2017.223992585036</v>
       </c>
       <c r="S42" t="n">
-        <v>1851.826309587889</v>
+        <v>1851.826309587888</v>
       </c>
       <c r="T42" t="n">
         <v>1652.583643154996</v>
       </c>
       <c r="U42" t="n">
-        <v>1425.67586972685</v>
+        <v>1425.675869726849</v>
       </c>
       <c r="V42" t="n">
         <v>1191.42462625245</v>
       </c>
       <c r="W42" t="n">
-        <v>938.9101345857838</v>
+        <v>938.9101345857829</v>
       </c>
       <c r="X42" t="n">
-        <v>732.3832359913613</v>
+        <v>732.3832359913604</v>
       </c>
       <c r="Y42" t="n">
-        <v>526.6548002150117</v>
+        <v>651.2589708178316</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="C43" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="D43" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="E43" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="F43" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="G43" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="H43" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="I43" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="J43" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="K43" t="n">
-        <v>54.36699723779373</v>
+        <v>54.36699723779372</v>
       </c>
       <c r="L43" t="n">
         <v>126.1174781188561</v>
@@ -7582,13 +7582,13 @@
         <v>301.6955001827768</v>
       </c>
       <c r="O43" t="n">
-        <v>368.8735893259254</v>
+        <v>369.4948398509574</v>
       </c>
       <c r="P43" t="n">
-        <v>403.1335685671107</v>
+        <v>403.7548190921428</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.1335685671107</v>
+        <v>403.7548190921428</v>
       </c>
       <c r="R43" t="n">
         <v>403.7548190921428</v>
@@ -7606,13 +7606,13 @@
         <v>192.6922819233482</v>
       </c>
       <c r="W43" t="n">
-        <v>99.56926030997522</v>
+        <v>99.56926030997521</v>
       </c>
       <c r="X43" t="n">
-        <v>67.00403360074999</v>
+        <v>67.00403360074998</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>1150.686639058225</v>
       </c>
       <c r="C44" t="n">
-        <v>975.854002503915</v>
+        <v>975.8540025039148</v>
       </c>
       <c r="D44" t="n">
-        <v>811.5065810247007</v>
+        <v>811.5065810247005</v>
       </c>
       <c r="E44" t="n">
-        <v>620.3780454033763</v>
+        <v>620.3780454033761</v>
       </c>
       <c r="F44" t="n">
-        <v>404.8294817767454</v>
+        <v>404.8294817767451</v>
       </c>
       <c r="G44" t="n">
-        <v>182.1739788129753</v>
+        <v>182.1739788129744</v>
       </c>
       <c r="H44" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="I44" t="n">
-        <v>50.7337517341247</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="J44" t="n">
-        <v>94.19688601316363</v>
+        <v>85.36829073070615</v>
       </c>
       <c r="K44" t="n">
-        <v>281.6134503737677</v>
+        <v>272.7848550913102</v>
       </c>
       <c r="L44" t="n">
-        <v>566.0893490925021</v>
+        <v>749.2225314453192</v>
       </c>
       <c r="M44" t="n">
-        <v>897.8358929126387</v>
+        <v>1080.969075265456</v>
       </c>
       <c r="N44" t="n">
-        <v>1219.433267649849</v>
+        <v>1402.566450002666</v>
       </c>
       <c r="O44" t="n">
-        <v>1476.980197823518</v>
+        <v>1852.07515781161</v>
       </c>
       <c r="P44" t="n">
-        <v>1758.966328164882</v>
+        <v>2035.108303644389</v>
       </c>
       <c r="Q44" t="n">
-        <v>2011.077624739127</v>
+        <v>2095.25782258336</v>
       </c>
       <c r="R44" t="n">
-        <v>2095.257822583361</v>
+        <v>2095.25782258336</v>
       </c>
       <c r="S44" t="n">
-        <v>2095.257822583361</v>
+        <v>2095.25782258336</v>
       </c>
       <c r="T44" t="n">
-        <v>2068.221454688527</v>
+        <v>2068.221454688526</v>
       </c>
       <c r="U44" t="n">
-        <v>2010.105317791551</v>
+        <v>2010.10531779155</v>
       </c>
       <c r="V44" t="n">
-        <v>1874.112958162922</v>
+        <v>1874.112958162921</v>
       </c>
       <c r="W44" t="n">
-        <v>1715.901512192843</v>
+        <v>1715.901512192842</v>
       </c>
       <c r="X44" t="n">
-        <v>1537.153215585779</v>
+        <v>1537.153215585778</v>
       </c>
       <c r="Y44" t="n">
         <v>1342.41959309986</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.0437620889232</v>
+        <v>555.4716283764566</v>
       </c>
       <c r="C45" t="n">
-        <v>430.2906470107404</v>
+        <v>382.7185132982738</v>
       </c>
       <c r="D45" t="n">
-        <v>282.7023403696843</v>
+        <v>235.1302066572176</v>
       </c>
       <c r="E45" t="n">
-        <v>125.092811372539</v>
+        <v>235.1302066572176</v>
       </c>
       <c r="F45" t="n">
-        <v>119.5128582224569</v>
+        <v>179.0185840580697</v>
       </c>
       <c r="G45" t="n">
-        <v>119.5128582224569</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="H45" t="n">
-        <v>119.5128582224569</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="I45" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="J45" t="n">
         <v>75.5735466578661</v>
@@ -7737,40 +7737,40 @@
         <v>980.9473586338249</v>
       </c>
       <c r="N45" t="n">
-        <v>1392.854088995321</v>
+        <v>1420.031858860433</v>
       </c>
       <c r="O45" t="n">
-        <v>1726.902605889471</v>
+        <v>1726.90260588947</v>
       </c>
       <c r="P45" t="n">
-        <v>1978.579449855809</v>
+        <v>1978.579449855808</v>
       </c>
       <c r="Q45" t="n">
-        <v>2095.257822583361</v>
+        <v>2095.25782258336</v>
       </c>
       <c r="R45" t="n">
-        <v>2095.257822583361</v>
+        <v>2017.223992585036</v>
       </c>
       <c r="S45" t="n">
-        <v>2095.257822583361</v>
+        <v>1851.826309587888</v>
       </c>
       <c r="T45" t="n">
-        <v>1896.015156150469</v>
+        <v>1652.583643154996</v>
       </c>
       <c r="U45" t="n">
-        <v>1669.107382722322</v>
+        <v>1425.675869726849</v>
       </c>
       <c r="V45" t="n">
-        <v>1434.856139247923</v>
+        <v>1387.284005535456</v>
       </c>
       <c r="W45" t="n">
-        <v>1182.341647581256</v>
+        <v>1134.769513868789</v>
       </c>
       <c r="X45" t="n">
-        <v>975.8147489868333</v>
+        <v>928.2426152743666</v>
       </c>
       <c r="Y45" t="n">
-        <v>770.0863132104837</v>
+        <v>722.514179498017</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="C46" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="D46" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="E46" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="F46" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="G46" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="H46" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="I46" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="J46" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="K46" t="n">
-        <v>54.36699723779372</v>
+        <v>54.3669972377937</v>
       </c>
       <c r="L46" t="n">
         <v>126.117478118856</v>
@@ -7843,13 +7843,13 @@
         <v>192.6922819233482</v>
       </c>
       <c r="W46" t="n">
-        <v>99.56926030997522</v>
+        <v>99.56926030997521</v>
       </c>
       <c r="X46" t="n">
-        <v>67.00403360074999</v>
+        <v>67.00403360074998</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
     </row>
   </sheetData>
@@ -8456,10 +8456,10 @@
         <v>214.587604768856</v>
       </c>
       <c r="L8" t="n">
-        <v>229.8722545957376</v>
+        <v>232.8118738627965</v>
       </c>
       <c r="M8" t="n">
-        <v>227.5271966636498</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N8" t="n">
         <v>230.971600487217</v>
@@ -8614,10 +8614,10 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L10" t="n">
-        <v>132.389699401295</v>
+        <v>138.8064228547481</v>
       </c>
       <c r="M10" t="n">
-        <v>142.7465028294557</v>
+        <v>136.3297793760026</v>
       </c>
       <c r="N10" t="n">
         <v>131.7872693341432</v>
@@ -8769,7 +8769,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>249.3888809088853</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8778,16 +8778,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>480.8299226811423</v>
+        <v>83.09898063847082</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>76.98224507610172</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.6234370962409</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9240,7 +9240,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>97.1262017982687</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9249,10 +9249,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>484.3332662999999</v>
+        <v>86.60232425732846</v>
       </c>
       <c r="N18" t="n">
-        <v>234.9643977432694</v>
+        <v>480.8299226811423</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9261,7 +9261,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>100.6234370962409</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9416,7 +9416,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P20" t="n">
-        <v>334.6706564983421</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
         <v>220.8075902863009</v>
@@ -9477,7 +9477,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>97.1262017982687</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9486,13 +9486,13 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>484.3332662999999</v>
+        <v>86.60232425732846</v>
       </c>
       <c r="N21" t="n">
-        <v>454.5301999317518</v>
+        <v>480.8299226811423</v>
       </c>
       <c r="O21" t="n">
-        <v>72.19406771027406</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
         <v>331.2012793855346</v>
@@ -9717,10 +9717,10 @@
         <v>97.1262017982687</v>
       </c>
       <c r="K24" t="n">
-        <v>89.0334881931135</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
-        <v>325.8187924776933</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
         <v>484.3332662999999</v>
@@ -9729,13 +9729,13 @@
         <v>480.8299226811423</v>
       </c>
       <c r="O24" t="n">
-        <v>409.6168120477987</v>
+        <v>72.19406771027406</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>304.9015566361441</v>
       </c>
       <c r="Q24" t="n">
-        <v>100.6234370962409</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10662,28 +10662,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>97.1262017982687</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>385.6739591155975</v>
+        <v>383.9965385491763</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>233.8977059128503</v>
+        <v>489.1494036235107</v>
       </c>
       <c r="O36" t="n">
-        <v>409.6168120477987</v>
+        <v>72.19406771027406</v>
       </c>
       <c r="P36" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>100.6234370962409</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10899,22 +10899,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>97.12620179826871</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>89.03348819311354</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>145.233101396054</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>489.1494036235107</v>
+        <v>489.1494036235109</v>
       </c>
       <c r="O39" t="n">
-        <v>409.6168120477987</v>
+        <v>222.518530488065</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
@@ -11136,7 +11136,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>103.6823839609825</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11148,7 +11148,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>471.0637765242519</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11385,10 +11385,10 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>471.063776524253</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O45" t="n">
-        <v>409.6168120477987</v>
+        <v>382.1645192547552</v>
       </c>
       <c r="P45" t="n">
         <v>331.2012793855346</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.9593084670258</v>
       </c>
       <c r="C11" t="n">
-        <v>245.2279941545734</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>234.8476312302292</v>
       </c>
       <c r="E11" t="n">
-        <v>261.3609342309182</v>
+        <v>14.69814857228479</v>
       </c>
       <c r="F11" t="n">
-        <v>285.5367619561716</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>292.5726318999395</v>
       </c>
       <c r="H11" t="n">
-        <v>211.0098181035021</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>63.22591095322373</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>72.14368396580703</v>
+        <v>72.14368396580704</v>
       </c>
       <c r="T11" t="n">
-        <v>41.74781101924086</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>129.6786594938134</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>206.7761199981501</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>249.1044976068002</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>264.9299702268666</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>10.96201488703851</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>10.96201488703777</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.1659725970236195</v>
       </c>
       <c r="E14" t="n">
-        <v>261.3609342309182</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.5367619561716</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.5726318999395</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>63.22591095322372</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>72.14368396580704</v>
       </c>
       <c r="T14" t="n">
-        <v>98.90968818169256</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>129.6786594938134</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>206.7761199981501</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>228.7730154761854</v>
@@ -23561,7 +23561,7 @@
         <v>249.1044976068002</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.91955946759124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>10.96201488703844</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>10.96201488703854</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>324862.5511022963</v>
+        <v>324862.5511022962</v>
       </c>
       <c r="C2" t="n">
         <v>324862.5511022963</v>
@@ -26323,28 +26323,28 @@
         <v>279183.6681348168</v>
       </c>
       <c r="F2" t="n">
-        <v>279183.6681348167</v>
+        <v>279183.6681348168</v>
       </c>
       <c r="G2" t="n">
-        <v>325567.7634459746</v>
+        <v>325567.7634459743</v>
       </c>
       <c r="H2" t="n">
         <v>325567.7634459744</v>
       </c>
       <c r="I2" t="n">
-        <v>325567.7634459746</v>
+        <v>325567.7634459744</v>
       </c>
       <c r="J2" t="n">
+        <v>325567.7634459747</v>
+      </c>
+      <c r="K2" t="n">
         <v>325567.7634459742</v>
       </c>
-      <c r="K2" t="n">
-        <v>325567.7634459744</v>
-      </c>
       <c r="L2" t="n">
-        <v>325567.7634459745</v>
+        <v>325567.7634459747</v>
       </c>
       <c r="M2" t="n">
-        <v>325567.7634459744</v>
+        <v>325567.7634459743</v>
       </c>
       <c r="N2" t="n">
         <v>325567.7634459742</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>109806.815889704</v>
+        <v>109806.8158897041</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>82789.82134251198</v>
+        <v>82789.82134251196</v>
       </c>
       <c r="M3" t="n">
-        <v>95807.27948275863</v>
+        <v>95807.27948275866</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32617.61304535325</v>
+        <v>32617.61304535313</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26445,7 +26445,7 @@
         <v>331499.4459803789</v>
       </c>
       <c r="L4" t="n">
-        <v>331460.3792911309</v>
+        <v>331460.3792911308</v>
       </c>
       <c r="M4" t="n">
         <v>333951.6538716754</v>
@@ -26457,7 +26457,7 @@
         <v>330809.2492475862</v>
       </c>
       <c r="P4" t="n">
-        <v>330809.2492475863</v>
+        <v>330809.2492475862</v>
       </c>
     </row>
     <row r="5">
@@ -26491,25 +26491,25 @@
         <v>47515.22272232699</v>
       </c>
       <c r="J5" t="n">
-        <v>58664.78374388417</v>
+        <v>58664.78374388418</v>
       </c>
       <c r="K5" t="n">
-        <v>58664.78374388417</v>
+        <v>58664.78374388418</v>
       </c>
       <c r="L5" t="n">
         <v>58379.96079419769</v>
       </c>
       <c r="M5" t="n">
-        <v>47794.85782624554</v>
+        <v>47794.85782624555</v>
       </c>
       <c r="N5" t="n">
-        <v>47794.85782624554</v>
+        <v>47794.85782624556</v>
       </c>
       <c r="O5" t="n">
-        <v>50996.08120559493</v>
+        <v>50996.08120559491</v>
       </c>
       <c r="P5" t="n">
-        <v>50996.08120559492</v>
+        <v>50996.08120559491</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120165.7452093472</v>
+        <v>-120170.1527864952</v>
       </c>
       <c r="C6" t="n">
-        <v>-120165.7452093473</v>
+        <v>-120170.1527864952</v>
       </c>
       <c r="D6" t="n">
-        <v>-122091.1158318931</v>
+        <v>-122092.6204513758</v>
       </c>
       <c r="E6" t="n">
-        <v>-355405.1014651281</v>
+        <v>-355695.0020608229</v>
       </c>
       <c r="F6" t="n">
-        <v>-28106.87602937222</v>
+        <v>-28396.77662506689</v>
       </c>
       <c r="G6" t="n">
-        <v>-137470.8743957811</v>
+        <v>-137470.8743957814</v>
       </c>
       <c r="H6" t="n">
         <v>-56190.70774101769</v>
       </c>
       <c r="I6" t="n">
-        <v>-56190.70774101757</v>
+        <v>-56190.70774101774</v>
       </c>
       <c r="J6" t="n">
-        <v>-174403.282167993</v>
+        <v>-174403.2821679925</v>
       </c>
       <c r="K6" t="n">
-        <v>-64596.46627828867</v>
+        <v>-64596.46627828886</v>
       </c>
       <c r="L6" t="n">
-        <v>-147062.397981866</v>
+        <v>-147062.3979818657</v>
       </c>
       <c r="M6" t="n">
-        <v>-151986.0277347051</v>
+        <v>-151986.0277347053</v>
       </c>
       <c r="N6" t="n">
-        <v>-56178.7482519467</v>
+        <v>-56178.74825194677</v>
       </c>
       <c r="O6" t="n">
-        <v>-88855.18005256035</v>
+        <v>-88855.1800525602</v>
       </c>
       <c r="P6" t="n">
-        <v>-56237.56700720701</v>
+        <v>-56237.56700720699</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>223.3573098428237</v>
       </c>
       <c r="J2" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="K2" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="L2" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="M2" t="n">
         <v>220.6667897060618</v>
@@ -26808,28 +26808,28 @@
         <v>425.8335505624412</v>
       </c>
       <c r="I4" t="n">
-        <v>425.8335505624413</v>
+        <v>425.8335505624412</v>
       </c>
       <c r="J4" t="n">
-        <v>721.4776733116944</v>
+        <v>721.4776733116945</v>
       </c>
       <c r="K4" t="n">
-        <v>721.4776733116944</v>
+        <v>721.4776733116945</v>
       </c>
       <c r="L4" t="n">
-        <v>714.1838098311536</v>
+        <v>714.1838098311537</v>
       </c>
       <c r="M4" t="n">
         <v>434.1530315048096</v>
       </c>
       <c r="N4" t="n">
-        <v>434.1530315048096</v>
+        <v>434.1530315048097</v>
       </c>
       <c r="O4" t="n">
-        <v>523.8144556458402</v>
+        <v>523.81445564584</v>
       </c>
       <c r="P4" t="n">
-        <v>523.8144556458402</v>
+        <v>523.81445564584</v>
       </c>
     </row>
   </sheetData>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.56663129637309</v>
+        <v>40.56663129637306</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>103.48727667814</v>
+        <v>103.4872766781399</v>
       </c>
       <c r="M2" t="n">
-        <v>76.6128817315487</v>
+        <v>76.61288173154875</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.8006270804876</v>
+        <v>13.80062708048757</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>295.6441227492531</v>
+        <v>295.6441227492533</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>89.66142414103064</v>
+        <v>89.66142414103024</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.56663129637309</v>
+        <v>40.56663129637306</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9850956789426</v>
+        <v>359.6912321984018</v>
       </c>
       <c r="D8" t="n">
         <v>356.6047327545984</v>
@@ -27874,7 +27874,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>198.5710882429984</v>
+        <v>199.4405167698789</v>
       </c>
       <c r="T8" t="n">
-        <v>217.1999593773224</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
@@ -27941,7 +27941,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>136.2123686030085</v>
       </c>
       <c r="G9" t="n">
         <v>136.0232102050423</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>87.40111628055038</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
         <v>161.6677504251035</v>
@@ -27986,7 +27986,7 @@
         <v>191.0886684277278</v>
       </c>
       <c r="U9" t="n">
-        <v>218.2327421135409</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
         <v>231.9087310396551</v>
@@ -27995,7 +27995,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>198.0371946548179</v>
       </c>
       <c r="Y9" t="n">
         <v>203.671151418586</v>
@@ -28014,19 +28014,19 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D10" t="n">
-        <v>142.581131560859</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
-        <v>139.6807606926583</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>160.5957254495672</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
-        <v>154.340208528376</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
         <v>153.7585467974036</v>
@@ -28056,22 +28056,22 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3911476697823</v>
+        <v>166.9667127161219</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
       </c>
       <c r="T10" t="n">
-        <v>228.3324659915077</v>
+        <v>221.0386025109668</v>
       </c>
       <c r="U10" t="n">
         <v>286.0522703910642</v>
       </c>
       <c r="V10" t="n">
-        <v>252.9363510669392</v>
+        <v>245.6424875863983</v>
       </c>
       <c r="W10" t="n">
-        <v>286.0925768874155</v>
+        <v>278.7987134068747</v>
       </c>
       <c r="X10" t="n">
         <v>226.1403599323093</v>
@@ -28169,10 +28169,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="D12" t="n">
-        <v>10.33814051084121</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="E12" t="n">
         <v>121.7571015243692</v>
@@ -28181,13 +28181,13 @@
         <v>121.7571015243692</v>
       </c>
       <c r="G12" t="n">
-        <v>121.7571015243692</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>107.7494499164407</v>
       </c>
       <c r="I12" t="n">
-        <v>76.83162475308175</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,22 +28217,22 @@
         <v>77.2534916983407</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>121.7571015243692</v>
       </c>
-      <c r="T12" t="n">
+      <c r="W12" t="n">
+        <v>87.16976526392276</v>
+      </c>
+      <c r="X12" t="n">
         <v>121.7571015243692</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>121.7571015243692</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28403,19 +28403,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="D15" t="n">
-        <v>73.16211365599413</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="G15" t="n">
         <v>121.7571015243692</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>76.83162475308175</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,25 +28451,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.2534916983407</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>121.7571015243692</v>
+        <v>73.58398060125302</v>
       </c>
       <c r="T15" t="n">
-        <v>121.7571015243692</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>121.7571015243692</v>
       </c>
       <c r="V15" t="n">
-        <v>121.7571015243692</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>121.7571015243692</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>121.7571015243692</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.2534916983407</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>159.4863669613489</v>
+        <v>13.38254881686584</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28700,7 +28700,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>223.3573098428237</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28770,10 +28770,10 @@
         <v>162.8017045146044</v>
       </c>
       <c r="S19" t="n">
-        <v>22.38531336912891</v>
+        <v>218.2530878088799</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3573098428237</v>
+        <v>27.48953540307275</v>
       </c>
       <c r="U19" t="n">
         <v>223.3573098428237</v>
@@ -28880,22 +28880,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.7494499164407</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>76.83162475308175</v>
@@ -28928,19 +28928,19 @@
         <v>77.2534916983407</v>
       </c>
       <c r="S21" t="n">
-        <v>163.7437061671767</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2502397685634</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>223.3573098428237</v>
       </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
       <c r="W21" t="n">
-        <v>156.5294938784928</v>
+        <v>8.595216437903616</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28965,10 +28965,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>97.26587114325271</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
         <v>167.6540776589658</v>
@@ -29016,7 +29016,7 @@
         <v>223.3573098428237</v>
       </c>
       <c r="V22" t="n">
-        <v>223.3573098428237</v>
+        <v>27.48953540307269</v>
       </c>
       <c r="W22" t="n">
         <v>223.3573098428237</v>
@@ -29114,25 +29114,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.7422933303385</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>107.7494499164407</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>76.83162475308175</v>
@@ -29162,19 +29162,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.2534916983407</v>
+        <v>37.75815876828644</v>
       </c>
       <c r="S24" t="n">
-        <v>163.7437061671767</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>197.2502397685634</v>
       </c>
       <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
         <v>223.3573098428237</v>
-      </c>
-      <c r="V24" t="n">
-        <v>20.78720054815395</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29238,22 +29238,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>60.03984243501851</v>
       </c>
       <c r="R25" t="n">
-        <v>162.8017045146044</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>218.2530878088799</v>
       </c>
       <c r="T25" t="n">
-        <v>87.52937783809128</v>
+        <v>223.3573098428237</v>
       </c>
       <c r="U25" t="n">
         <v>223.3573098428237</v>
       </c>
       <c r="V25" t="n">
-        <v>223.3573098428237</v>
+        <v>190.2912399176772</v>
       </c>
       <c r="W25" t="n">
         <v>223.3573098428237</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="C26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="D26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="E26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="F26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="G26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="H26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="I26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="J26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148279</v>
       </c>
       <c r="K26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="L26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="M26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="N26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="O26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="P26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="R26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="S26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="T26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="U26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="V26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="W26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="X26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="Y26" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
     </row>
     <row r="27">
@@ -29354,13 +29354,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>142.1668396148276</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -29372,7 +29372,7 @@
         <v>107.7494499164407</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>76.83162475308175</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29402,10 +29402,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>142.1668396148276</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>61.31505864988023</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29417,10 +29417,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>126.6502735116256</v>
       </c>
       <c r="Y27" t="n">
-        <v>142.1668396148276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="C28" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="D28" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="E28" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="F28" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="G28" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="H28" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="I28" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="J28" t="n">
         <v>72.18819805802188</v>
       </c>
       <c r="K28" t="n">
-        <v>142.1668396148276</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>11.19962874129413</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="N28" t="n">
-        <v>11.19962874129347</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="O28" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="P28" t="n">
-        <v>142.1668396148276</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="R28" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="S28" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="T28" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="U28" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="V28" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="W28" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="X28" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="C29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="D29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="E29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="F29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="G29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="H29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="I29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="J29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="K29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="L29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="M29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="N29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="O29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="P29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="Q29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="R29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="S29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="T29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="U29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="V29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="W29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="X29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="Y29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
     </row>
     <row r="30">
@@ -29591,25 +29591,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7422933303385</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>107.7494499164407</v>
       </c>
       <c r="I30" t="n">
-        <v>76.83162475308175</v>
+        <v>61.31505864988013</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,13 +29636,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.2534916983407</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>55.82132809777426</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>142.1668396148276</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="C31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="D31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="E31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="F31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="G31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="H31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="I31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="J31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="K31" t="n">
-        <v>142.1668396148276</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>142.1668396148276</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>142.1668396148276</v>
+        <v>83.387826799316</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.38782679931538</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="R31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="S31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="T31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="U31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="V31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="W31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="X31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="C32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="D32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="E32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="F32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="G32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="H32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="I32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="J32" t="n">
-        <v>98.18954036994958</v>
+        <v>144.053907974513</v>
       </c>
       <c r="K32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="L32" t="n">
-        <v>144.0539079745131</v>
+        <v>98.18954036995007</v>
       </c>
       <c r="M32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="N32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="O32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="P32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="R32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="S32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="T32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="U32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="V32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="W32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="X32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="Y32" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
     </row>
     <row r="33">
@@ -29825,28 +29825,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>123.4238126832184</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>144.053907974513</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.7494499164407</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>76.83162475308175</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,19 +29873,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.2534916983407</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>144.0539079745131</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>144.0539079745131</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>144.0539079745131</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>86.14981178892288</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="C34" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="D34" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="E34" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="F34" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="G34" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="H34" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="I34" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="J34" t="n">
-        <v>72.18819805802188</v>
+        <v>144.053907974513</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>45.03341750202107</v>
       </c>
       <c r="L34" t="n">
-        <v>116.8991274185112</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>144.0539079745131</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>144.053907974513</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="R34" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="S34" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="T34" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="U34" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="V34" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="W34" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="X34" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
       <c r="Y34" t="n">
-        <v>144.0539079745131</v>
+        <v>144.053907974513</v>
       </c>
     </row>
     <row r="35">
@@ -30010,7 +30010,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>32.94178312533757</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30031,10 +30031,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>115.046061526665</v>
+        <v>108.8702826172133</v>
       </c>
       <c r="S35" t="n">
-        <v>220.6667897060618</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="T35" t="n">
         <v>220.6667897060618</v>
@@ -30071,13 +30071,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.7422933303385</v>
       </c>
       <c r="H36" t="n">
         <v>107.7494499164407</v>
@@ -30110,19 +30110,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>77.2534916983407</v>
       </c>
       <c r="S36" t="n">
-        <v>163.7437061671767</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.2502397685634</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>220.6667897060618</v>
       </c>
       <c r="V36" t="n">
-        <v>204.1872640724521</v>
+        <v>52.64575918878955</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30150,10 +30150,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>110.7184718270622</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>167.6540776589658</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.03984243501851</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>162.8017045146044</v>
+        <v>40.42637319368147</v>
       </c>
       <c r="S37" t="n">
         <v>218.2530878088799</v>
@@ -30241,7 +30241,7 @@
         <v>220.6667897060618</v>
       </c>
       <c r="I38" t="n">
-        <v>217.924795602931</v>
+        <v>184.983012477593</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>108.8702826172133</v>
+        <v>141.8120657425522</v>
       </c>
       <c r="S38" t="n">
         <v>193.9007854901762</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>26.26727692498145</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30311,13 +30311,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>135.7422933303385</v>
       </c>
       <c r="H39" t="n">
-        <v>107.7494499164407</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>76.83162475308177</v>
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.25349169834072</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>163.7437061671767</v>
       </c>
       <c r="T39" t="n">
-        <v>197.2502397685634</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>211.8582687498347</v>
+        <v>220.6667897060618</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>60.03984243501854</v>
       </c>
       <c r="R40" t="n">
         <v>162.8017045146044</v>
@@ -30438,7 +30438,7 @@
         <v>220.6667897060618</v>
       </c>
       <c r="V40" t="n">
-        <v>220.6667897060618</v>
+        <v>38.25161595012051</v>
       </c>
       <c r="W40" t="n">
         <v>220.6667897060618</v>
@@ -30447,7 +30447,7 @@
         <v>220.6667897060618</v>
       </c>
       <c r="Y40" t="n">
-        <v>96.37334254684554</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>193.9007854901763</v>
       </c>
       <c r="I41" t="n">
-        <v>193.9007854901763</v>
+        <v>184.983012477593</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30490,10 +30490,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>188.716936635601</v>
       </c>
       <c r="N41" t="n">
-        <v>100.1157345100602</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>193.9007854901763</v>
+        <v>114.2173563772179</v>
       </c>
       <c r="S41" t="n">
         <v>193.9007854901763</v>
@@ -30539,19 +30539,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>2.607985786680331</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7422933303385</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>107.7494499164407</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>123.3581288967925</v>
       </c>
     </row>
     <row r="43">
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.6275257828606442</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>60.03984243501854</v>
       </c>
       <c r="R43" t="n">
-        <v>163.4292302974651</v>
+        <v>162.8017045146044</v>
       </c>
       <c r="S43" t="n">
         <v>193.9007854901763</v>
@@ -30715,17 +30715,17 @@
         <v>193.9007854901763</v>
       </c>
       <c r="I44" t="n">
+        <v>184.983012477593</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>193.9007854901763</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
@@ -30733,16 +30733,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="P44" t="n">
-        <v>100.1157345100602</v>
+        <v>0.1632249054292458</v>
       </c>
       <c r="Q44" t="n">
-        <v>193.9007854901763</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>193.9007854901763</v>
+        <v>108.8702826172133</v>
       </c>
       <c r="S44" t="n">
         <v>193.9007854901763</v>
@@ -30782,19 +30782,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>137.982078464968</v>
+        <v>87.95572571039288</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7422933303385</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>107.7494499164407</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>76.83162475308177</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,10 +30821,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.25349169834072</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>163.7437061671767</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30833,7 +30833,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -35176,10 +35176,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2.939619267058895</v>
       </c>
       <c r="M8" t="n">
-        <v>2.939619267058895</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>7.293863480540836</v>
@@ -35334,10 +35334,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8771400270876715</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="M10" t="n">
-        <v>7.293863480540836</v>
+        <v>0.877140027087671</v>
       </c>
       <c r="N10" t="n">
         <v>7.293863480540836</v>
@@ -35489,7 +35489,7 @@
         <v>34.00847495575648</v>
       </c>
       <c r="K12" t="n">
-        <v>160.3553927157718</v>
+        <v>186.0103582999683</v>
       </c>
       <c r="L12" t="n">
         <v>311.5781312960625</v>
@@ -35498,16 +35498,16 @@
         <v>416.9305123998874</v>
       </c>
       <c r="N12" t="n">
-        <v>425.8335505624412</v>
+        <v>28.10260851976976</v>
       </c>
       <c r="O12" t="n">
         <v>337.4227443375246</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>254.2190343094329</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>117.8569421490421</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>34.00847495575648</v>
       </c>
       <c r="K18" t="n">
         <v>186.0103582999683</v>
@@ -35969,10 +35969,10 @@
         <v>311.5781312960625</v>
       </c>
       <c r="M18" t="n">
-        <v>416.9305123998874</v>
+        <v>19.19957035721598</v>
       </c>
       <c r="N18" t="n">
-        <v>179.9680256245684</v>
+        <v>425.8335505624412</v>
       </c>
       <c r="O18" t="n">
         <v>337.4227443375246</v>
@@ -35981,7 +35981,7 @@
         <v>254.2190343094329</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>117.8569421490421</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>335.0975190102391</v>
       </c>
       <c r="N20" t="n">
-        <v>324.845833067889</v>
+        <v>324.8458330678891</v>
       </c>
       <c r="O20" t="n">
         <v>260.1484143168381</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>34.00847495575648</v>
       </c>
       <c r="K21" t="n">
         <v>186.0103582999683</v>
@@ -36206,13 +36206,13 @@
         <v>311.5781312960625</v>
       </c>
       <c r="M21" t="n">
-        <v>416.9305123998874</v>
+        <v>19.19957035721598</v>
       </c>
       <c r="N21" t="n">
-        <v>399.5338278130508</v>
+        <v>425.8335505624412</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>337.4227443375246</v>
       </c>
       <c r="P21" t="n">
         <v>254.2190343094329</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>186.0103582999683</v>
       </c>
       <c r="L24" t="n">
-        <v>251.7229646581582</v>
+        <v>311.5781312960625</v>
       </c>
       <c r="M24" t="n">
         <v>416.9305123998874</v>
       </c>
       <c r="N24" t="n">
-        <v>425.8335505624413</v>
+        <v>425.8335505624412</v>
       </c>
       <c r="O24" t="n">
-        <v>337.4227443375246</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>254.2190343094329</v>
+        <v>227.9193115600423</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>117.8569421490421</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.0689954522407</v>
+        <v>186.068995452241</v>
       </c>
       <c r="K26" t="n">
-        <v>331.4765005851348</v>
+        <v>331.4765005851347</v>
       </c>
       <c r="L26" t="n">
         <v>429.516232260014</v>
@@ -36607,7 +36607,7 @@
         <v>467.0126726827166</v>
       </c>
       <c r="O26" t="n">
-        <v>402.3152539316657</v>
+        <v>402.3152539316656</v>
       </c>
       <c r="P26" t="n">
         <v>326.8855801970539</v>
@@ -36616,7 +36616,7 @@
         <v>202.9239294521722</v>
       </c>
       <c r="R26" t="n">
-        <v>33.29655699761425</v>
+        <v>33.29655699761422</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>154.7545575806119</v>
+        <v>12.58771796578438</v>
       </c>
       <c r="L28" t="n">
-        <v>72.47523321319431</v>
+        <v>83.67486195448845</v>
       </c>
       <c r="M28" t="n">
-        <v>87.11487025423412</v>
+        <v>229.2817098690616</v>
       </c>
       <c r="N28" t="n">
-        <v>101.4362959253631</v>
+        <v>232.4035067988972</v>
       </c>
       <c r="O28" t="n">
         <v>210.0234953149777</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7728792523886</v>
+        <v>34.60603963756101</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.12699717980904</v>
+        <v>82.12699717980901</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.0689954522407</v>
+        <v>186.0689954522406</v>
       </c>
       <c r="K29" t="n">
-        <v>331.4765005851348</v>
+        <v>331.4765005851347</v>
       </c>
       <c r="L29" t="n">
         <v>429.516232260014</v>
@@ -36853,7 +36853,7 @@
         <v>202.9239294521722</v>
       </c>
       <c r="R29" t="n">
-        <v>33.29655699761426</v>
+        <v>33.29655699761422</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.97864155680567</v>
+        <v>69.97864155680564</v>
       </c>
       <c r="K31" t="n">
-        <v>154.7545575806119</v>
+        <v>12.58771796578438</v>
       </c>
       <c r="L31" t="n">
-        <v>214.6420728280219</v>
+        <v>72.47523321319431</v>
       </c>
       <c r="M31" t="n">
-        <v>229.2817098690617</v>
+        <v>170.5026970535501</v>
       </c>
       <c r="N31" t="n">
-        <v>90.23666718406963</v>
+        <v>232.4035067988972</v>
       </c>
       <c r="O31" t="n">
         <v>67.85665570015016</v>
       </c>
       <c r="P31" t="n">
-        <v>34.60603963756101</v>
+        <v>176.7728792523885</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.34798436429686</v>
+        <v>82.12699717980901</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>142.0916962073627</v>
+        <v>187.9560638119261</v>
       </c>
       <c r="K32" t="n">
-        <v>333.3635689448203</v>
+        <v>333.3635689448202</v>
       </c>
       <c r="L32" t="n">
-        <v>431.4033006196995</v>
+        <v>385.5389330151365</v>
       </c>
       <c r="M32" t="n">
         <v>479.1514269847521</v>
@@ -37081,16 +37081,16 @@
         <v>468.8997410424021</v>
       </c>
       <c r="O32" t="n">
-        <v>404.2023222913512</v>
+        <v>404.202322291351</v>
       </c>
       <c r="P32" t="n">
-        <v>328.7726485567394</v>
+        <v>328.7726485567393</v>
       </c>
       <c r="Q32" t="n">
-        <v>204.8109978118578</v>
+        <v>204.8109978118577</v>
       </c>
       <c r="R32" t="n">
-        <v>35.18362535729977</v>
+        <v>35.18362535729971</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>71.86570991649113</v>
       </c>
       <c r="K34" t="n">
-        <v>12.58771796578438</v>
+        <v>57.62113546780545</v>
       </c>
       <c r="L34" t="n">
-        <v>189.3743606317055</v>
+        <v>72.47523321319431</v>
       </c>
       <c r="M34" t="n">
         <v>87.11487025423412</v>
       </c>
       <c r="N34" t="n">
-        <v>234.2905751585827</v>
+        <v>90.23666718406963</v>
       </c>
       <c r="O34" t="n">
         <v>211.9105636746632</v>
       </c>
       <c r="P34" t="n">
-        <v>34.60603963756101</v>
+        <v>178.659947612074</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.01406553949455</v>
+        <v>84.0140655394945</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>43.90215583741313</v>
       </c>
       <c r="K35" t="n">
-        <v>189.3096609703072</v>
+        <v>222.2514440956448</v>
       </c>
       <c r="L35" t="n">
         <v>287.3493926451864</v>
@@ -37327,10 +37327,10 @@
         <v>60.75708983734468</v>
       </c>
       <c r="R35" t="n">
-        <v>6.175778909451682</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>26.76600421588553</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>34.00847495575648</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>186.0103582999683</v>
       </c>
       <c r="L36" t="n">
-        <v>311.5781312960625</v>
+        <v>309.9007107296412</v>
       </c>
       <c r="M36" t="n">
         <v>416.9305123998874</v>
       </c>
       <c r="N36" t="n">
-        <v>178.9013337941492</v>
+        <v>434.1530315048096</v>
       </c>
       <c r="O36" t="n">
-        <v>337.4227443375246</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>254.2190343094329</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>117.8569421490421</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>32.94178312533806</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>43.90215583741309</v>
@@ -37564,7 +37564,7 @@
         <v>60.75708983734463</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>32.94178312533891</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>34.00847495575646</v>
       </c>
       <c r="K39" t="n">
-        <v>186.0103582999682</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>311.5781312960625</v>
       </c>
       <c r="M39" t="n">
-        <v>77.83034749594148</v>
+        <v>416.9305123998874</v>
       </c>
       <c r="N39" t="n">
-        <v>434.1530315048096</v>
+        <v>434.1530315048097</v>
       </c>
       <c r="O39" t="n">
-        <v>337.4227443375246</v>
+        <v>150.3244627777909</v>
       </c>
       <c r="P39" t="n">
         <v>254.2190343094329</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.917773012583321</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>43.90215583741309</v>
@@ -37786,10 +37786,10 @@
         <v>287.3493926451864</v>
       </c>
       <c r="M41" t="n">
-        <v>335.097519010239</v>
+        <v>523.81445564584</v>
       </c>
       <c r="N41" t="n">
-        <v>424.9615675779492</v>
+        <v>324.845833067889</v>
       </c>
       <c r="O41" t="n">
         <v>260.148414316838</v>
@@ -37801,7 +37801,7 @@
         <v>60.75708983734463</v>
       </c>
       <c r="R41" t="n">
-        <v>85.03050287296296</v>
+        <v>5.347073760004614</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>6.55618216271377</v>
+        <v>34.00847495575646</v>
       </c>
       <c r="K42" t="n">
         <v>186.0103582999682</v>
@@ -37868,7 +37868,7 @@
         <v>416.9305123998874</v>
       </c>
       <c r="N42" t="n">
-        <v>443.5196971985945</v>
+        <v>416.0674044055508</v>
       </c>
       <c r="O42" t="n">
         <v>337.4227443375246</v>
@@ -37950,7 +37950,7 @@
         <v>90.2366671840696</v>
       </c>
       <c r="O43" t="n">
-        <v>67.85665570015013</v>
+        <v>68.48418148301077</v>
       </c>
       <c r="P43" t="n">
         <v>34.60603963756098</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.6275257828606599</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.917773012583314</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>43.90215583741307</v>
@@ -38020,7 +38020,7 @@
         <v>189.3096609703071</v>
       </c>
       <c r="L44" t="n">
-        <v>287.3493926451863</v>
+        <v>481.2501781353625</v>
       </c>
       <c r="M44" t="n">
         <v>335.097519010239</v>
@@ -38029,16 +38029,16 @@
         <v>324.8458330678889</v>
       </c>
       <c r="O44" t="n">
-        <v>260.1484143168379</v>
+        <v>454.0491998070142</v>
       </c>
       <c r="P44" t="n">
-        <v>284.8344750922865</v>
+        <v>184.8819654876555</v>
       </c>
       <c r="Q44" t="n">
-        <v>254.6578753275209</v>
+        <v>60.7570898373446</v>
       </c>
       <c r="R44" t="n">
-        <v>85.03050287296293</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,10 +38105,10 @@
         <v>416.9305123998873</v>
       </c>
       <c r="N45" t="n">
-        <v>416.0674044055518</v>
+        <v>443.5196971985945</v>
       </c>
       <c r="O45" t="n">
-        <v>337.4227443375245</v>
+        <v>309.9704515444811</v>
       </c>
       <c r="P45" t="n">
         <v>254.2190343094329</v>
